--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8181429105711782</v>
+        <v>0.8181429105711789</v>
       </c>
       <c r="D2">
-        <v>0.8388891608968168</v>
+        <v>0.8388891608968174</v>
       </c>
       <c r="E2">
-        <v>0.8464498149900889</v>
+        <v>0.8464498149900894</v>
       </c>
       <c r="F2">
-        <v>0.8089153561018011</v>
+        <v>0.8089153561018015</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.014032632848069</v>
       </c>
       <c r="J2">
-        <v>0.847559368976011</v>
+        <v>0.8475593689760117</v>
       </c>
       <c r="K2">
-        <v>0.8531664621994376</v>
+        <v>0.8531664621994381</v>
       </c>
       <c r="L2">
-        <v>0.8605630508992153</v>
+        <v>0.8605630508992163</v>
       </c>
       <c r="M2">
         <v>0.8238836903769127</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8654930934948109</v>
+        <v>0.8654930934948035</v>
       </c>
       <c r="D3">
-        <v>0.8823963600901814</v>
+        <v>0.8823963600901746</v>
       </c>
       <c r="E3">
-        <v>0.8879680913726796</v>
+        <v>0.887968091372673</v>
       </c>
       <c r="F3">
-        <v>0.8625436910549548</v>
+        <v>0.8625436910549482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023555370900785</v>
+        <v>1.023555370900784</v>
       </c>
       <c r="J3">
-        <v>0.8904686945827882</v>
+        <v>0.8904686945827813</v>
       </c>
       <c r="K3">
-        <v>0.8947936186844538</v>
+        <v>0.8947936186844473</v>
       </c>
       <c r="L3">
-        <v>0.9002681198977155</v>
+        <v>0.9002681198977089</v>
       </c>
       <c r="M3">
-        <v>0.8753007180950799</v>
+        <v>0.8753007180950736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8884739003616473</v>
+        <v>0.888473900361645</v>
       </c>
       <c r="D4">
-        <v>0.9035152071187872</v>
+        <v>0.9035152071187853</v>
       </c>
       <c r="E4">
-        <v>0.9081346929764955</v>
+        <v>0.9081346929764936</v>
       </c>
       <c r="F4">
-        <v>0.8882421591942543</v>
+        <v>0.888242159194252</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.028136308919635</v>
       </c>
       <c r="J4">
-        <v>0.9112354941902486</v>
+        <v>0.9112354941902464</v>
       </c>
       <c r="K4">
-        <v>0.9149367984549405</v>
+        <v>0.9149367984549385</v>
       </c>
       <c r="L4">
-        <v>0.9194847601036097</v>
+        <v>0.9194847601036079</v>
       </c>
       <c r="M4">
-        <v>0.8999070281340745</v>
+        <v>0.8999070281340724</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.897085959799728</v>
+        <v>0.8970859597997271</v>
       </c>
       <c r="D5">
-        <v>0.9114292031823259</v>
+        <v>0.9114292031823248</v>
       </c>
       <c r="E5">
-        <v>0.9156939252588339</v>
+        <v>0.9156939252588332</v>
       </c>
       <c r="F5">
-        <v>0.8978144808505341</v>
+        <v>0.8978144808505329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029838568831485</v>
+        <v>1.029838568831484</v>
       </c>
       <c r="J5">
-        <v>0.919006392072259</v>
+        <v>0.919006392072258</v>
       </c>
       <c r="K5">
-        <v>0.9224736639567098</v>
+        <v>0.9224736639567089</v>
       </c>
       <c r="L5">
-        <v>0.9266754363303598</v>
+        <v>0.926675436330359</v>
       </c>
       <c r="M5">
-        <v>0.9090650113287504</v>
+        <v>0.9090650113287493</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8984821329218007</v>
+        <v>0.8984821329217977</v>
       </c>
       <c r="D6">
-        <v>0.912712171411336</v>
+        <v>0.9127121714113333</v>
       </c>
       <c r="E6">
-        <v>0.916919485172935</v>
+        <v>0.9169194851729321</v>
       </c>
       <c r="F6">
-        <v>0.8993632478212895</v>
+        <v>0.899363247821287</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030113602064872</v>
+        <v>1.030113602064871</v>
       </c>
       <c r="J6">
-        <v>0.9202655663515172</v>
+        <v>0.9202655663515144</v>
       </c>
       <c r="K6">
-        <v>0.9236948775299247</v>
+        <v>0.9236948775299221</v>
       </c>
       <c r="L6">
-        <v>0.9278405787811335</v>
+        <v>0.9278405787811305</v>
       </c>
       <c r="M6">
-        <v>0.9105463037677268</v>
+        <v>0.9105463037677244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.888592527416044</v>
+        <v>0.8885925274160384</v>
       </c>
       <c r="D7">
-        <v>0.90362422080023</v>
+        <v>0.9036242208002249</v>
       </c>
       <c r="E7">
-        <v>0.9082388123139196</v>
+        <v>0.9082388123139145</v>
       </c>
       <c r="F7">
-        <v>0.88837423337326</v>
+        <v>0.8883742333732549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028159819739502</v>
+        <v>1.028159819739501</v>
       </c>
       <c r="J7">
-        <v>0.9113425791678064</v>
+        <v>0.9113425791678011</v>
       </c>
       <c r="K7">
-        <v>0.9150406611080517</v>
+        <v>0.9150406611080468</v>
       </c>
       <c r="L7">
-        <v>0.9195838503676533</v>
+        <v>0.9195838503676482</v>
       </c>
       <c r="M7">
-        <v>0.9000334158577586</v>
+        <v>0.9000334158577535</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D8">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E8">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F8">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J8">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K8">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L8">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M8">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D9">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E9">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F9">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J9">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K9">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L9">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M9">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D10">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E10">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F10">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J10">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K10">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L10">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M10">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D11">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E11">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F11">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J11">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K11">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L11">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M11">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D12">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E12">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F12">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J12">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K12">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L12">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M12">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D13">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E13">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F13">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J13">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K13">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L13">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M13">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D14">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E14">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F14">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J14">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K14">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L14">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M14">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D15">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E15">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F15">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J15">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K15">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L15">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M15">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D16">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E16">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F16">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J16">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K16">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L16">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M16">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D17">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E17">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F17">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J17">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K17">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L17">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M17">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D18">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E18">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F18">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J18">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K18">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L18">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M18">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D19">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E19">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F19">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J19">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K19">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L19">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M19">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D20">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E20">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F20">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J20">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K20">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L20">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M20">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D21">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E21">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F21">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J21">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K21">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L21">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M21">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D22">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E22">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F22">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J22">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K22">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L22">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M22">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D23">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E23">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F23">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J23">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K23">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L23">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M23">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D24">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E24">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F24">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J24">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K24">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L24">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M24">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8365410817729125</v>
+        <v>0.8365410817729133</v>
       </c>
       <c r="D25">
-        <v>0.8557921249326362</v>
+        <v>0.8557921249326371</v>
       </c>
       <c r="E25">
-        <v>0.862575517646932</v>
+        <v>0.8625755176469327</v>
       </c>
       <c r="F25">
-        <v>0.8298594212037472</v>
+        <v>0.829859421203748</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J25">
-        <v>0.8642496633905863</v>
+        <v>0.8642496633905873</v>
       </c>
       <c r="K25">
-        <v>0.8693588862029944</v>
+        <v>0.8693588862029954</v>
       </c>
       <c r="L25">
-        <v>0.8760065022952135</v>
+        <v>0.8760065022952142</v>
       </c>
       <c r="M25">
-        <v>0.8439724692457121</v>
+        <v>0.8439724692457128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8181429105711789</v>
+        <v>0.8181429105711782</v>
       </c>
       <c r="D2">
-        <v>0.8388891608968174</v>
+        <v>0.8388891608968168</v>
       </c>
       <c r="E2">
-        <v>0.8464498149900894</v>
+        <v>0.8464498149900889</v>
       </c>
       <c r="F2">
-        <v>0.8089153561018015</v>
+        <v>0.8089153561018011</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.014032632848069</v>
       </c>
       <c r="J2">
-        <v>0.8475593689760117</v>
+        <v>0.847559368976011</v>
       </c>
       <c r="K2">
-        <v>0.8531664621994381</v>
+        <v>0.8531664621994376</v>
       </c>
       <c r="L2">
-        <v>0.8605630508992163</v>
+        <v>0.8605630508992153</v>
       </c>
       <c r="M2">
         <v>0.8238836903769127</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8654930934948035</v>
+        <v>0.8654930934948109</v>
       </c>
       <c r="D3">
-        <v>0.8823963600901746</v>
+        <v>0.8823963600901814</v>
       </c>
       <c r="E3">
-        <v>0.887968091372673</v>
+        <v>0.8879680913726796</v>
       </c>
       <c r="F3">
-        <v>0.8625436910549482</v>
+        <v>0.8625436910549548</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023555370900784</v>
+        <v>1.023555370900785</v>
       </c>
       <c r="J3">
-        <v>0.8904686945827813</v>
+        <v>0.8904686945827882</v>
       </c>
       <c r="K3">
-        <v>0.8947936186844473</v>
+        <v>0.8947936186844538</v>
       </c>
       <c r="L3">
-        <v>0.9002681198977089</v>
+        <v>0.9002681198977155</v>
       </c>
       <c r="M3">
-        <v>0.8753007180950736</v>
+        <v>0.8753007180950799</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.888473900361645</v>
+        <v>0.8884739003616473</v>
       </c>
       <c r="D4">
-        <v>0.9035152071187853</v>
+        <v>0.9035152071187872</v>
       </c>
       <c r="E4">
-        <v>0.9081346929764936</v>
+        <v>0.9081346929764955</v>
       </c>
       <c r="F4">
-        <v>0.888242159194252</v>
+        <v>0.8882421591942543</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.028136308919635</v>
       </c>
       <c r="J4">
-        <v>0.9112354941902464</v>
+        <v>0.9112354941902486</v>
       </c>
       <c r="K4">
-        <v>0.9149367984549385</v>
+        <v>0.9149367984549405</v>
       </c>
       <c r="L4">
-        <v>0.9194847601036079</v>
+        <v>0.9194847601036097</v>
       </c>
       <c r="M4">
-        <v>0.8999070281340724</v>
+        <v>0.8999070281340745</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8970859597997271</v>
+        <v>0.897085959799728</v>
       </c>
       <c r="D5">
-        <v>0.9114292031823248</v>
+        <v>0.9114292031823259</v>
       </c>
       <c r="E5">
-        <v>0.9156939252588332</v>
+        <v>0.9156939252588339</v>
       </c>
       <c r="F5">
-        <v>0.8978144808505329</v>
+        <v>0.8978144808505341</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029838568831484</v>
+        <v>1.029838568831485</v>
       </c>
       <c r="J5">
-        <v>0.919006392072258</v>
+        <v>0.919006392072259</v>
       </c>
       <c r="K5">
-        <v>0.9224736639567089</v>
+        <v>0.9224736639567098</v>
       </c>
       <c r="L5">
-        <v>0.926675436330359</v>
+        <v>0.9266754363303598</v>
       </c>
       <c r="M5">
-        <v>0.9090650113287493</v>
+        <v>0.9090650113287504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8984821329217977</v>
+        <v>0.8984821329218007</v>
       </c>
       <c r="D6">
-        <v>0.9127121714113333</v>
+        <v>0.912712171411336</v>
       </c>
       <c r="E6">
-        <v>0.9169194851729321</v>
+        <v>0.916919485172935</v>
       </c>
       <c r="F6">
-        <v>0.899363247821287</v>
+        <v>0.8993632478212895</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030113602064871</v>
+        <v>1.030113602064872</v>
       </c>
       <c r="J6">
-        <v>0.9202655663515144</v>
+        <v>0.9202655663515172</v>
       </c>
       <c r="K6">
-        <v>0.9236948775299221</v>
+        <v>0.9236948775299247</v>
       </c>
       <c r="L6">
-        <v>0.9278405787811305</v>
+        <v>0.9278405787811335</v>
       </c>
       <c r="M6">
-        <v>0.9105463037677244</v>
+        <v>0.9105463037677268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8885925274160384</v>
+        <v>0.888592527416044</v>
       </c>
       <c r="D7">
-        <v>0.9036242208002249</v>
+        <v>0.90362422080023</v>
       </c>
       <c r="E7">
-        <v>0.9082388123139145</v>
+        <v>0.9082388123139196</v>
       </c>
       <c r="F7">
-        <v>0.8883742333732549</v>
+        <v>0.88837423337326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028159819739501</v>
+        <v>1.028159819739502</v>
       </c>
       <c r="J7">
-        <v>0.9113425791678011</v>
+        <v>0.9113425791678064</v>
       </c>
       <c r="K7">
-        <v>0.9150406611080468</v>
+        <v>0.9150406611080517</v>
       </c>
       <c r="L7">
-        <v>0.9195838503676482</v>
+        <v>0.9195838503676533</v>
       </c>
       <c r="M7">
-        <v>0.9000334158577535</v>
+        <v>0.9000334158577586</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D8">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E8">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F8">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J8">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K8">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L8">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M8">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D9">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E9">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F9">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J9">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K9">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L9">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M9">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D10">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E10">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F10">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J10">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K10">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L10">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M10">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D11">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E11">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F11">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J11">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K11">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L11">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M11">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D12">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E12">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F12">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J12">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K12">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L12">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M12">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D13">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E13">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F13">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J13">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K13">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L13">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M13">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D14">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E14">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F14">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J14">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K14">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L14">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M14">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D15">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E15">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F15">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J15">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K15">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L15">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M15">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D16">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E16">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F16">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J16">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K16">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L16">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M16">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D17">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E17">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F17">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J17">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K17">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L17">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M17">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D18">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E18">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F18">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J18">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K18">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L18">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M18">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D19">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E19">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F19">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J19">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K19">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L19">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M19">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D20">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E20">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F20">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J20">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K20">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L20">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M20">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D21">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E21">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F21">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J21">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K21">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L21">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M21">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D22">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E22">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F22">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J22">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K22">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L22">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M22">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D23">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E23">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F23">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J23">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K23">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L23">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M23">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D24">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E24">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F24">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J24">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K24">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L24">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M24">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8365410817729133</v>
+        <v>0.8365410817729125</v>
       </c>
       <c r="D25">
-        <v>0.8557921249326371</v>
+        <v>0.8557921249326362</v>
       </c>
       <c r="E25">
-        <v>0.8625755176469327</v>
+        <v>0.862575517646932</v>
       </c>
       <c r="F25">
-        <v>0.829859421203748</v>
+        <v>0.8298594212037472</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.017737575063945</v>
       </c>
       <c r="J25">
-        <v>0.8642496633905873</v>
+        <v>0.8642496633905863</v>
       </c>
       <c r="K25">
-        <v>0.8693588862029954</v>
+        <v>0.8693588862029944</v>
       </c>
       <c r="L25">
-        <v>0.8760065022952142</v>
+        <v>0.8760065022952135</v>
       </c>
       <c r="M25">
-        <v>0.8439724692457128</v>
+        <v>0.8439724692457121</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8181429105711782</v>
+        <v>0.8240941742001701</v>
       </c>
       <c r="D2">
-        <v>0.8388891608968168</v>
+        <v>0.844327273130226</v>
       </c>
       <c r="E2">
-        <v>0.8464498149900889</v>
+        <v>0.8515829949544584</v>
       </c>
       <c r="F2">
-        <v>0.8089153561018011</v>
+        <v>0.814520063924012</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.014032632848069</v>
+        <v>1.014753040778054</v>
       </c>
       <c r="J2">
-        <v>0.847559368976011</v>
+        <v>0.8531997611720868</v>
       </c>
       <c r="K2">
-        <v>0.8531664621994376</v>
+        <v>0.8584861743791155</v>
       </c>
       <c r="L2">
-        <v>0.8605630508992153</v>
+        <v>0.8655870384093196</v>
       </c>
       <c r="M2">
-        <v>0.8238836903769127</v>
+        <v>0.8293539976973665</v>
+      </c>
+      <c r="N2">
+        <v>0.8544114026963316</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8654930934948109</v>
+        <v>0.8704528713798366</v>
       </c>
       <c r="D3">
-        <v>0.8823963600901814</v>
+        <v>0.8869345980104616</v>
       </c>
       <c r="E3">
-        <v>0.8879680913726796</v>
+        <v>0.8922438185827111</v>
       </c>
       <c r="F3">
-        <v>0.8625436910549548</v>
+        <v>0.866971963356851</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023555370900785</v>
+        <v>1.024083740596882</v>
       </c>
       <c r="J3">
-        <v>0.8904686945827882</v>
+        <v>0.8952280288705431</v>
       </c>
       <c r="K3">
-        <v>0.8947936186844538</v>
+        <v>0.8992525421830976</v>
       </c>
       <c r="L3">
-        <v>0.9002681198977155</v>
+        <v>0.9044702970249583</v>
       </c>
       <c r="M3">
-        <v>0.8753007180950799</v>
+        <v>0.8796468812055268</v>
+      </c>
+      <c r="N3">
+        <v>0.8964993553556292</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8884739003616473</v>
+        <v>0.8931517536756496</v>
       </c>
       <c r="D4">
-        <v>0.9035152071187872</v>
+        <v>0.9077989207352438</v>
       </c>
       <c r="E4">
-        <v>0.9081346929764955</v>
+        <v>0.9121675883461104</v>
       </c>
       <c r="F4">
-        <v>0.8882421591942543</v>
+        <v>0.8923339508357132</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028136308919635</v>
+        <v>1.028609349569135</v>
       </c>
       <c r="J4">
-        <v>0.9112354941902486</v>
+        <v>0.9157488715332505</v>
       </c>
       <c r="K4">
-        <v>0.9149367984549405</v>
+        <v>0.9191541553593519</v>
       </c>
       <c r="L4">
-        <v>0.9194847601036097</v>
+        <v>0.9234559686008137</v>
       </c>
       <c r="M4">
-        <v>0.8999070281340745</v>
+        <v>0.9039325956943269</v>
+      </c>
+      <c r="N4">
+        <v>0.9170493399686915</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.897085959799728</v>
+        <v>0.9016780658846358</v>
       </c>
       <c r="D5">
-        <v>0.9114292031823259</v>
+        <v>0.9156357133326694</v>
       </c>
       <c r="E5">
-        <v>0.9156939252588339</v>
+        <v>0.9196531110818413</v>
       </c>
       <c r="F5">
-        <v>0.8978144808505341</v>
+        <v>0.9018034863789379</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029838568831485</v>
+        <v>1.030294639505762</v>
       </c>
       <c r="J5">
-        <v>0.919006392072259</v>
+        <v>0.9234457261453737</v>
       </c>
       <c r="K5">
-        <v>0.9224736639567098</v>
+        <v>0.9266180786336556</v>
       </c>
       <c r="L5">
-        <v>0.9266754363303598</v>
+        <v>0.9305768449860798</v>
       </c>
       <c r="M5">
-        <v>0.9090650113287504</v>
+        <v>0.91299281832696</v>
+      </c>
+      <c r="N5">
+        <v>0.9247571249972052</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8984821329218007</v>
+        <v>0.9030611894080772</v>
       </c>
       <c r="D6">
-        <v>0.912712171411336</v>
+        <v>0.9169069429780117</v>
       </c>
       <c r="E6">
-        <v>0.916919485172935</v>
+        <v>0.9208674608864409</v>
       </c>
       <c r="F6">
-        <v>0.8993632478212895</v>
+        <v>0.9033365853591244</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030113602064872</v>
+        <v>1.030567082483904</v>
       </c>
       <c r="J6">
-        <v>0.9202655663515172</v>
+        <v>0.9246936721787639</v>
       </c>
       <c r="K6">
-        <v>0.9236948775299247</v>
+        <v>0.9278282191901384</v>
       </c>
       <c r="L6">
-        <v>0.9278405787811335</v>
+        <v>0.9317313884248647</v>
       </c>
       <c r="M6">
-        <v>0.9105463037677268</v>
+        <v>0.9144592183090342</v>
+      </c>
+      <c r="N6">
+        <v>0.9260068432571045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.888592527416044</v>
+        <v>0.8932691349786946</v>
       </c>
       <c r="D7">
-        <v>0.90362422080023</v>
+        <v>0.9079068119675737</v>
       </c>
       <c r="E7">
-        <v>0.9082388123139196</v>
+        <v>0.912270636242512</v>
       </c>
       <c r="F7">
-        <v>0.88837423337326</v>
+        <v>0.8924645336016361</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028159819739502</v>
+        <v>1.028632614423875</v>
       </c>
       <c r="J7">
-        <v>0.9113425791678064</v>
+        <v>0.9158548777469353</v>
       </c>
       <c r="K7">
-        <v>0.9150406611080517</v>
+        <v>0.9192569561812611</v>
       </c>
       <c r="L7">
-        <v>0.9195838503676533</v>
+        <v>0.9235540430084712</v>
       </c>
       <c r="M7">
-        <v>0.9000334158577586</v>
+        <v>0.9040575642154305</v>
+      </c>
+      <c r="N7">
+        <v>0.9171554967233589</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D8">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E8">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F8">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J8">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K8">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L8">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M8">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N8">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D9">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E9">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F9">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J9">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K9">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L9">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M9">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N9">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D10">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E10">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F10">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J10">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K10">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L10">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M10">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N10">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D11">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E11">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F11">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J11">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K11">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L11">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M11">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N11">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D12">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E12">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F12">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J12">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K12">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L12">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M12">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N12">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D13">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E13">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F13">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J13">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K13">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L13">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M13">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N13">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D14">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E14">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F14">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J14">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K14">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L14">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M14">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N14">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D15">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E15">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F15">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J15">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K15">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L15">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M15">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N15">
+        <v>0.8706991502847491</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D16">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E16">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F16">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J16">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K16">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L16">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M16">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N16">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D17">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E17">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F17">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J17">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K17">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L17">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M17">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N17">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D18">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E18">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F18">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J18">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K18">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L18">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M18">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N18">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D19">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E19">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F19">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J19">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K19">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L19">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M19">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N19">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D20">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E20">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F20">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J20">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K20">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L20">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M20">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N20">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D21">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E21">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F21">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J21">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K21">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L21">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M21">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N21">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D22">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E22">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F22">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J22">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K22">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L22">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M22">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N22">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D23">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E23">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F23">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J23">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K23">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L23">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M23">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N23">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D24">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E24">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F24">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J24">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K24">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L24">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M24">
-        <v>0.8439724692457121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N24">
+        <v>0.8706991502847491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8365410817729125</v>
+        <v>0.8420157518593073</v>
       </c>
       <c r="D25">
-        <v>0.8557921249326362</v>
+        <v>0.8607970136666268</v>
       </c>
       <c r="E25">
-        <v>0.862575517646932</v>
+        <v>0.8672960354170071</v>
       </c>
       <c r="F25">
-        <v>0.8298594212037472</v>
+        <v>0.8348992899969931</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.017737575063945</v>
+        <v>1.018365957034014</v>
       </c>
       <c r="J25">
-        <v>0.8642496633905863</v>
+        <v>0.8694644110920365</v>
       </c>
       <c r="K25">
-        <v>0.8693588862029944</v>
+        <v>0.874263324791555</v>
       </c>
       <c r="L25">
-        <v>0.8760065022952135</v>
+        <v>0.8806341779094747</v>
       </c>
       <c r="M25">
-        <v>0.8439724692457121</v>
+        <v>0.8489026447288485</v>
+      </c>
+      <c r="N25">
+        <v>0.8706991502847491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8240941742001701</v>
+        <v>0.9430774038524388</v>
       </c>
       <c r="D2">
-        <v>0.844327273130226</v>
+        <v>0.9561437823529815</v>
       </c>
       <c r="E2">
-        <v>0.8515829949544584</v>
+        <v>0.9553479934180994</v>
       </c>
       <c r="F2">
-        <v>0.814520063924012</v>
+        <v>0.9567540386442799</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.014753040778054</v>
+        <v>1.037660580835536</v>
       </c>
       <c r="J2">
-        <v>0.8531997611720868</v>
+        <v>0.9671050048276065</v>
       </c>
       <c r="K2">
-        <v>0.8584861743791155</v>
+        <v>0.9682499133098601</v>
       </c>
       <c r="L2">
-        <v>0.8655870384093196</v>
+        <v>0.9674665620729458</v>
       </c>
       <c r="M2">
-        <v>0.8293539976973665</v>
+        <v>0.9688506495839674</v>
       </c>
       <c r="N2">
-        <v>0.8544114026963316</v>
+        <v>0.9684784048629562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8704528713798366</v>
+        <v>0.9597441744587398</v>
       </c>
       <c r="D3">
-        <v>0.8869345980104616</v>
+        <v>0.9723334323367205</v>
       </c>
       <c r="E3">
-        <v>0.8922438185827111</v>
+        <v>0.969654314793572</v>
       </c>
       <c r="F3">
-        <v>0.866971963356851</v>
+        <v>0.9738036494402015</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.024083740596882</v>
+        <v>1.039324864337473</v>
       </c>
       <c r="J3">
-        <v>0.8952280288705431</v>
+        <v>0.9813958358900698</v>
       </c>
       <c r="K3">
-        <v>0.8992525421830976</v>
+        <v>0.9833329944971172</v>
       </c>
       <c r="L3">
-        <v>0.9044702970249583</v>
+        <v>0.980690785496498</v>
       </c>
       <c r="M3">
-        <v>0.8796468812055268</v>
+        <v>0.9847830660156048</v>
       </c>
       <c r="N3">
-        <v>0.8964993553556292</v>
+        <v>0.9827895305447093</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8931517536756496</v>
+        <v>0.9698285179320385</v>
       </c>
       <c r="D4">
-        <v>0.9077989207352438</v>
+        <v>0.9821389913525773</v>
       </c>
       <c r="E4">
-        <v>0.9121675883461104</v>
+        <v>0.9783207591092624</v>
       </c>
       <c r="F4">
-        <v>0.8923339508357132</v>
+        <v>0.984132705520871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028609349569135</v>
+        <v>1.040312928487814</v>
       </c>
       <c r="J4">
-        <v>0.9157488715332505</v>
+        <v>0.9900368212828589</v>
       </c>
       <c r="K4">
-        <v>0.9191541553593519</v>
+        <v>0.992457872637985</v>
       </c>
       <c r="L4">
-        <v>0.9234559686008137</v>
+        <v>0.9886880725668503</v>
       </c>
       <c r="M4">
-        <v>0.9039325956943269</v>
+        <v>0.994426483913354</v>
       </c>
       <c r="N4">
-        <v>0.9170493399686915</v>
+        <v>0.991442787127891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9016780658846358</v>
+        <v>0.9739212443361748</v>
       </c>
       <c r="D5">
-        <v>0.9156357133326694</v>
+        <v>0.9861206686452404</v>
       </c>
       <c r="E5">
-        <v>0.9196531110818413</v>
+        <v>0.9818400558581406</v>
       </c>
       <c r="F5">
-        <v>0.9018034863789379</v>
+        <v>0.9883276789880201</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030294639505762</v>
+        <v>1.040709086081182</v>
       </c>
       <c r="J5">
-        <v>0.9234457261453737</v>
+        <v>0.99354211924837</v>
       </c>
       <c r="K5">
-        <v>0.9266180786336556</v>
+        <v>0.9961606549009069</v>
       </c>
       <c r="L5">
-        <v>0.9305768449860798</v>
+        <v>0.9919324681113135</v>
       </c>
       <c r="M5">
-        <v>0.91299281832696</v>
+        <v>0.9983408556989105</v>
       </c>
       <c r="N5">
-        <v>0.9247571249972052</v>
+        <v>0.9949530630185764</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9030611894080772</v>
+        <v>0.9746003525748715</v>
       </c>
       <c r="D6">
-        <v>0.9169069429780117</v>
+        <v>0.9867814667119784</v>
       </c>
       <c r="E6">
-        <v>0.9208674608864409</v>
+        <v>0.9824241224056153</v>
       </c>
       <c r="F6">
-        <v>0.9033365853591244</v>
+        <v>0.9890239204610969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030567082483904</v>
+        <v>1.040774526948296</v>
       </c>
       <c r="J6">
-        <v>0.9246936721787639</v>
+        <v>0.9941236519421286</v>
       </c>
       <c r="K6">
-        <v>0.9278282191901384</v>
+        <v>0.9967750210693109</v>
       </c>
       <c r="L6">
-        <v>0.9317313884248647</v>
+        <v>0.9924707278914481</v>
       </c>
       <c r="M6">
-        <v>0.9144592183090342</v>
+        <v>0.9989903988585995</v>
       </c>
       <c r="N6">
-        <v>0.9260068432571045</v>
+        <v>0.9955354215554632</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8932691349786946</v>
+        <v>0.9698837573702639</v>
       </c>
       <c r="D7">
-        <v>0.9079068119675737</v>
+        <v>0.982192723945986</v>
       </c>
       <c r="E7">
-        <v>0.912270636242512</v>
+        <v>0.9783682514459672</v>
       </c>
       <c r="F7">
-        <v>0.8924645336016361</v>
+        <v>0.9841893135528498</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028632614423875</v>
+        <v>1.040318295117347</v>
       </c>
       <c r="J7">
-        <v>0.9158548777469353</v>
+        <v>0.9900841390596153</v>
       </c>
       <c r="K7">
-        <v>0.9192569561812611</v>
+        <v>0.9925078514760783</v>
       </c>
       <c r="L7">
-        <v>0.9235540430084712</v>
+        <v>0.9887318676506999</v>
       </c>
       <c r="M7">
-        <v>0.9040575642154305</v>
+        <v>0.9944793139952491</v>
       </c>
       <c r="N7">
-        <v>0.9171554967233589</v>
+        <v>0.9914901721013183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8420157518593073</v>
+        <v>0.9488691284887319</v>
       </c>
       <c r="D8">
-        <v>0.8607970136666268</v>
+        <v>0.9617673670803351</v>
       </c>
       <c r="E8">
-        <v>0.8672960354170071</v>
+        <v>0.9603169113310247</v>
       </c>
       <c r="F8">
-        <v>0.8348992899969931</v>
+        <v>0.9626758270800183</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.018365957034014</v>
+        <v>1.038242807282647</v>
       </c>
       <c r="J8">
-        <v>0.8694644110920365</v>
+        <v>0.9720721578112546</v>
       </c>
       <c r="K8">
-        <v>0.874263324791555</v>
+        <v>0.973491398308572</v>
       </c>
       <c r="L8">
-        <v>0.8806341779094747</v>
+        <v>0.9720626681282658</v>
       </c>
       <c r="M8">
-        <v>0.8489026447288485</v>
+        <v>0.9743862933997625</v>
       </c>
       <c r="N8">
-        <v>0.8706991502847491</v>
+        <v>0.9734526117735817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8420157518593073</v>
+        <v>0.9051913107303338</v>
       </c>
       <c r="D9">
-        <v>0.8607970136666268</v>
+        <v>0.9194214922538358</v>
       </c>
       <c r="E9">
-        <v>0.8672960354170071</v>
+        <v>0.9229207846154009</v>
       </c>
       <c r="F9">
-        <v>0.8348992899969931</v>
+        <v>0.918091238690495</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018365957034014</v>
+        <v>1.033780348416547</v>
       </c>
       <c r="J9">
-        <v>0.8694644110920365</v>
+        <v>0.934601636179516</v>
       </c>
       <c r="K9">
-        <v>0.874263324791555</v>
+        <v>0.9339728174434073</v>
       </c>
       <c r="L9">
-        <v>0.8806341779094747</v>
+        <v>0.9374018245287458</v>
       </c>
       <c r="M9">
-        <v>0.8489026447288485</v>
+        <v>0.9326694679407995</v>
       </c>
       <c r="N9">
-        <v>0.8706991502847491</v>
+        <v>0.9359288777031972</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8420157518593073</v>
+        <v>0.8688337623645644</v>
       </c>
       <c r="D10">
-        <v>0.8607970136666268</v>
+        <v>0.8842926395688308</v>
       </c>
       <c r="E10">
-        <v>0.8672960354170071</v>
+        <v>0.8919504413873039</v>
       </c>
       <c r="F10">
-        <v>0.8348992899969931</v>
+        <v>0.8811030904592164</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018365957034014</v>
+        <v>1.029997637802659</v>
       </c>
       <c r="J10">
-        <v>0.8694644110920365</v>
+        <v>0.9034272784811742</v>
       </c>
       <c r="K10">
-        <v>0.874263324791555</v>
+        <v>0.901120703978311</v>
       </c>
       <c r="L10">
-        <v>0.8806341779094747</v>
+        <v>0.9085892227151564</v>
       </c>
       <c r="M10">
-        <v>0.8489026447288485</v>
+        <v>0.8980113040720993</v>
       </c>
       <c r="N10">
-        <v>0.8706991502847491</v>
+        <v>0.9047102488411748</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8420157518593073</v>
+        <v>0.8501933316440257</v>
       </c>
       <c r="D11">
-        <v>0.8607970136666268</v>
+        <v>0.8663287884370108</v>
       </c>
       <c r="E11">
-        <v>0.8672960354170071</v>
+        <v>0.876139467575085</v>
       </c>
       <c r="F11">
-        <v>0.8348992899969931</v>
+        <v>0.8621816365208633</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018365957034014</v>
+        <v>1.028055947299999</v>
       </c>
       <c r="J11">
-        <v>0.8694644110920365</v>
+        <v>0.8874652659219443</v>
       </c>
       <c r="K11">
-        <v>0.874263324791555</v>
+        <v>0.8843043229839402</v>
       </c>
       <c r="L11">
-        <v>0.8806341779094747</v>
+        <v>0.8938477353096529</v>
       </c>
       <c r="M11">
-        <v>0.8489026447288485</v>
+        <v>0.8802726489112844</v>
       </c>
       <c r="N11">
-        <v>0.8706991502847491</v>
+        <v>0.8887255683932422</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8420157518593073</v>
+        <v>0.842642967084588</v>
       </c>
       <c r="D12">
-        <v>0.8607970136666268</v>
+        <v>0.8590621223618745</v>
       </c>
       <c r="E12">
-        <v>0.8672960354170071</v>
+        <v>0.8697497370412571</v>
       </c>
       <c r="F12">
-        <v>0.8348992899969931</v>
+        <v>0.8545255865017172</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018365957034014</v>
+        <v>1.027271081733378</v>
       </c>
       <c r="J12">
-        <v>0.8694644110920365</v>
+        <v>0.8810055986298894</v>
       </c>
       <c r="K12">
-        <v>0.874263324791555</v>
+        <v>0.8774993364725122</v>
       </c>
       <c r="L12">
-        <v>0.8806341779094747</v>
+        <v>0.8878845344555031</v>
       </c>
       <c r="M12">
-        <v>0.8489026447288485</v>
+        <v>0.8730943056631769</v>
       </c>
       <c r="N12">
-        <v>0.8706991502847491</v>
+        <v>0.8822567276326982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8420157518593073</v>
+        <v>0.8442955305526865</v>
       </c>
       <c r="D13">
-        <v>0.8607970136666268</v>
+        <v>0.8606521025881428</v>
       </c>
       <c r="E13">
-        <v>0.8672960354170071</v>
+        <v>0.8711475214182604</v>
       </c>
       <c r="F13">
-        <v>0.8348992899969931</v>
+        <v>0.8562008787343843</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018365957034014</v>
+        <v>1.027442751987483</v>
       </c>
       <c r="J13">
-        <v>0.8694644110920365</v>
+        <v>0.8824191203016506</v>
       </c>
       <c r="K13">
-        <v>0.874263324791555</v>
+        <v>0.878988408718365</v>
       </c>
       <c r="L13">
-        <v>0.8806341779094747</v>
+        <v>0.8891892858031395</v>
       </c>
       <c r="M13">
-        <v>0.8489026447288485</v>
+        <v>0.8746650937531908</v>
       </c>
       <c r="N13">
-        <v>0.8706991502847491</v>
+        <v>0.8836722566673668</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8420157518593073</v>
+        <v>0.8495836008212481</v>
       </c>
       <c r="D14">
-        <v>0.8607970136666268</v>
+        <v>0.8657417565126624</v>
       </c>
       <c r="E14">
-        <v>0.8672960354170071</v>
+        <v>0.8756231418036552</v>
       </c>
       <c r="F14">
-        <v>0.8348992899969931</v>
+        <v>0.8615631963296243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018365957034014</v>
+        <v>1.027992518628407</v>
       </c>
       <c r="J14">
-        <v>0.8694644110920365</v>
+        <v>0.8869434792262596</v>
       </c>
       <c r="K14">
-        <v>0.874263324791555</v>
+        <v>0.8837546362970532</v>
       </c>
       <c r="L14">
-        <v>0.8806341779094747</v>
+        <v>0.8933659945223321</v>
       </c>
       <c r="M14">
-        <v>0.8489026447288485</v>
+        <v>0.8796928102668089</v>
       </c>
       <c r="N14">
-        <v>0.8706991502847491</v>
+        <v>0.8882030407006001</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8420157518593073</v>
+        <v>0.8527507337842771</v>
       </c>
       <c r="D15">
-        <v>0.8607970136666268</v>
+        <v>0.8687913836285356</v>
       </c>
       <c r="E15">
-        <v>0.8672960354170071</v>
+        <v>0.8783057052990875</v>
       </c>
       <c r="F15">
-        <v>0.8348992899969931</v>
+        <v>0.8647759022998909</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018365957034014</v>
+        <v>1.028322064806342</v>
       </c>
       <c r="J15">
-        <v>0.8694644110920365</v>
+        <v>0.8896540504928592</v>
       </c>
       <c r="K15">
-        <v>0.874263324791555</v>
+        <v>0.8866101572772848</v>
       </c>
       <c r="L15">
-        <v>0.8806341779094747</v>
+        <v>0.8958686417789082</v>
       </c>
       <c r="M15">
-        <v>0.8489026447288485</v>
+        <v>0.8827049558481191</v>
       </c>
       <c r="N15">
-        <v>0.8706991502847491</v>
+        <v>0.890917461289305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8420157518593073</v>
+        <v>0.8699962276796788</v>
       </c>
       <c r="D16">
-        <v>0.8607970136666268</v>
+        <v>0.8854139993459474</v>
       </c>
       <c r="E16">
-        <v>0.8672960354170071</v>
+        <v>0.8929380677454783</v>
       </c>
       <c r="F16">
-        <v>0.8348992899969931</v>
+        <v>0.8822840271753393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018365957034014</v>
+        <v>1.030118818404088</v>
       </c>
       <c r="J16">
-        <v>0.8694644110920365</v>
+        <v>0.9044232979068121</v>
       </c>
       <c r="K16">
-        <v>0.874263324791555</v>
+        <v>0.9021701088520941</v>
       </c>
       <c r="L16">
-        <v>0.8806341779094747</v>
+        <v>0.9095093581256957</v>
       </c>
       <c r="M16">
-        <v>0.8489026447288485</v>
+        <v>0.8991182734996268</v>
       </c>
       <c r="N16">
-        <v>0.8706991502847491</v>
+        <v>0.905707682728642</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8420157518593073</v>
+        <v>0.8799375518953787</v>
       </c>
       <c r="D17">
-        <v>0.8607970136666268</v>
+        <v>0.8950088351065859</v>
       </c>
       <c r="E17">
-        <v>0.8672960354170071</v>
+        <v>0.9013915088552181</v>
       </c>
       <c r="F17">
-        <v>0.8348992899969931</v>
+        <v>0.8923878579490735</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018365957034014</v>
+        <v>1.031155038202365</v>
       </c>
       <c r="J17">
-        <v>0.8694644110920365</v>
+        <v>0.9129435420233558</v>
       </c>
       <c r="K17">
-        <v>0.874263324791555</v>
+        <v>0.9111475041318216</v>
       </c>
       <c r="L17">
-        <v>0.8806341779094747</v>
+        <v>0.9173816956322961</v>
       </c>
       <c r="M17">
-        <v>0.8489026447288485</v>
+        <v>0.9085883245129984</v>
       </c>
       <c r="N17">
-        <v>0.8706991502847491</v>
+        <v>0.9142400265691168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8420157518593073</v>
+        <v>0.8854734121225989</v>
       </c>
       <c r="D18">
-        <v>0.8607970136666268</v>
+        <v>0.9003555964504822</v>
       </c>
       <c r="E18">
-        <v>0.8672960354170071</v>
+        <v>0.9061043518716773</v>
       </c>
       <c r="F18">
-        <v>0.8348992899969931</v>
+        <v>0.8980177422521968</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018365957034014</v>
+        <v>1.03173171925549</v>
       </c>
       <c r="J18">
-        <v>0.8694644110920365</v>
+        <v>0.9176896922396847</v>
       </c>
       <c r="K18">
-        <v>0.874263324791555</v>
+        <v>0.9161487339855645</v>
       </c>
       <c r="L18">
-        <v>0.8806341779094747</v>
+        <v>0.9217678459204662</v>
       </c>
       <c r="M18">
-        <v>0.8489026447288485</v>
+        <v>0.9138642363064859</v>
       </c>
       <c r="N18">
-        <v>0.8706991502847491</v>
+        <v>0.9189929168631439</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8420157518593073</v>
+        <v>0.8873204455660205</v>
       </c>
       <c r="D19">
-        <v>0.8607970136666268</v>
+        <v>0.9021401379114506</v>
       </c>
       <c r="E19">
-        <v>0.8672960354170071</v>
+        <v>0.9076776362965736</v>
       </c>
       <c r="F19">
-        <v>0.8348992899969931</v>
+        <v>0.8998967106111968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018365957034014</v>
+        <v>1.03192402944789</v>
       </c>
       <c r="J19">
-        <v>0.8694644110920365</v>
+        <v>0.9192734640906886</v>
       </c>
       <c r="K19">
-        <v>0.874263324791555</v>
+        <v>0.9178177024235681</v>
       </c>
       <c r="L19">
-        <v>0.8806341779094747</v>
+        <v>0.9232316258293367</v>
       </c>
       <c r="M19">
-        <v>0.8489026447288485</v>
+        <v>0.9156249170605587</v>
       </c>
       <c r="N19">
-        <v>0.8706991502847491</v>
+        <v>0.9205789378518376</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8420157518593073</v>
+        <v>0.8788991253553524</v>
       </c>
       <c r="D20">
-        <v>0.8607970136666268</v>
+        <v>0.8940061834599493</v>
       </c>
       <c r="E20">
-        <v>0.8672960354170071</v>
+        <v>0.9005078975528952</v>
       </c>
       <c r="F20">
-        <v>0.8348992899969931</v>
+        <v>0.891332076010828</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018365957034014</v>
+        <v>1.031046824917028</v>
       </c>
       <c r="J20">
-        <v>0.8694644110920365</v>
+        <v>0.9120533713079779</v>
       </c>
       <c r="K20">
-        <v>0.874263324791555</v>
+        <v>0.910209528022466</v>
       </c>
       <c r="L20">
-        <v>0.8806341779094747</v>
+        <v>0.9165591161858265</v>
       </c>
       <c r="M20">
-        <v>0.8489026447288485</v>
+        <v>0.9075988531302261</v>
       </c>
       <c r="N20">
-        <v>0.8706991502847491</v>
+        <v>0.9133485917092191</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8420157518593073</v>
+        <v>0.8480459212381036</v>
       </c>
       <c r="D21">
-        <v>0.8607970136666268</v>
+        <v>0.8642614849857767</v>
       </c>
       <c r="E21">
-        <v>0.8672960354170071</v>
+        <v>0.8743212692904728</v>
       </c>
       <c r="F21">
-        <v>0.8348992899969931</v>
+        <v>0.8600036887911331</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018365957034014</v>
+        <v>1.027832591870306</v>
       </c>
       <c r="J21">
-        <v>0.8694644110920365</v>
+        <v>0.8856276889615886</v>
       </c>
       <c r="K21">
-        <v>0.874263324791555</v>
+        <v>0.8823684962306901</v>
       </c>
       <c r="L21">
-        <v>0.8806341779094747</v>
+        <v>0.8921512317700303</v>
       </c>
       <c r="M21">
-        <v>0.8489026447288485</v>
+        <v>0.8782306318237669</v>
       </c>
       <c r="N21">
-        <v>0.8706991502847491</v>
+        <v>0.8868853818628298</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8420157518593073</v>
+        <v>0.8247924145719587</v>
       </c>
       <c r="D22">
-        <v>0.8607970136666268</v>
+        <v>0.8419056274389167</v>
       </c>
       <c r="E22">
-        <v>0.8672960354170071</v>
+        <v>0.8546792025429621</v>
       </c>
       <c r="F22">
-        <v>0.8348992899969931</v>
+        <v>0.836444009175933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018365957034014</v>
+        <v>1.02542202387355</v>
       </c>
       <c r="J22">
-        <v>0.8694644110920365</v>
+        <v>0.8657497119901104</v>
       </c>
       <c r="K22">
-        <v>0.874263324791555</v>
+        <v>0.861428220050349</v>
       </c>
       <c r="L22">
-        <v>0.8806341779094747</v>
+        <v>0.8738075904688366</v>
       </c>
       <c r="M22">
-        <v>0.8489026447288485</v>
+        <v>0.8561402486384683</v>
       </c>
       <c r="N22">
-        <v>0.8706991502847491</v>
+        <v>0.8669791758840164</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8420157518593073</v>
+        <v>0.8375942562215551</v>
       </c>
       <c r="D23">
-        <v>0.8607970136666268</v>
+        <v>0.8542063341825722</v>
       </c>
       <c r="E23">
-        <v>0.8672960354170071</v>
+        <v>0.8654820533407183</v>
       </c>
       <c r="F23">
-        <v>0.8348992899969931</v>
+        <v>0.8494088398463528</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018365957034014</v>
+        <v>1.026747072534261</v>
       </c>
       <c r="J23">
-        <v>0.8694644110920365</v>
+        <v>0.876688344095485</v>
       </c>
       <c r="K23">
-        <v>0.874263324791555</v>
+        <v>0.8729513623944815</v>
       </c>
       <c r="L23">
-        <v>0.8806341779094747</v>
+        <v>0.883899964550647</v>
       </c>
       <c r="M23">
-        <v>0.8489026447288485</v>
+        <v>0.8682966728356478</v>
       </c>
       <c r="N23">
-        <v>0.8706991502847491</v>
+        <v>0.8779333421016592</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8420157518593073</v>
+        <v>0.8793691452051283</v>
       </c>
       <c r="D24">
-        <v>0.8607970136666268</v>
+        <v>0.8944599986784825</v>
       </c>
       <c r="E24">
-        <v>0.8672960354170071</v>
+        <v>0.9009078267445693</v>
       </c>
       <c r="F24">
-        <v>0.8348992899969931</v>
+        <v>0.8918099403662029</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018365957034014</v>
+        <v>1.031095806363989</v>
       </c>
       <c r="J24">
-        <v>0.8694644110920365</v>
+        <v>0.9124562816188112</v>
       </c>
       <c r="K24">
-        <v>0.874263324791555</v>
+        <v>0.9106340747188828</v>
       </c>
       <c r="L24">
-        <v>0.8806341779094747</v>
+        <v>0.9169314304186326</v>
       </c>
       <c r="M24">
-        <v>0.8489026447288485</v>
+        <v>0.9080467068694458</v>
       </c>
       <c r="N24">
-        <v>0.8706991502847491</v>
+        <v>0.9137520741989082</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8420157518593073</v>
+        <v>0.9174909304801152</v>
       </c>
       <c r="D25">
-        <v>0.8607970136666268</v>
+        <v>0.93133082370047</v>
       </c>
       <c r="E25">
-        <v>0.8672960354170071</v>
+        <v>0.9334325711165332</v>
       </c>
       <c r="F25">
-        <v>0.8348992899969931</v>
+        <v>0.9306292805809876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.018365957034014</v>
+        <v>1.035050712826832</v>
       </c>
       <c r="J25">
-        <v>0.8694644110920365</v>
+        <v>0.9451541523830937</v>
       </c>
       <c r="K25">
-        <v>0.874263324791555</v>
+        <v>0.9450976945021391</v>
       </c>
       <c r="L25">
-        <v>0.8806341779094747</v>
+        <v>0.9471603499594264</v>
       </c>
       <c r="M25">
-        <v>0.8489026447288485</v>
+        <v>0.9444092512068905</v>
       </c>
       <c r="N25">
-        <v>0.8706991502847491</v>
+        <v>0.9464963796901744</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9430774038524388</v>
+        <v>0.9800458106865449</v>
       </c>
       <c r="D2">
-        <v>0.9561437823529815</v>
+        <v>0.9895026407410047</v>
       </c>
       <c r="E2">
-        <v>0.9553479934180994</v>
+        <v>0.9890911223776895</v>
       </c>
       <c r="F2">
-        <v>0.9567540386442799</v>
+        <v>0.9558094168794226</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037660580835536</v>
+        <v>1.036744185155603</v>
       </c>
       <c r="J2">
-        <v>0.9671050048276065</v>
+        <v>1.002840180793055</v>
       </c>
       <c r="K2">
-        <v>0.9682499133098601</v>
+        <v>1.001110183963144</v>
       </c>
       <c r="L2">
-        <v>0.9674665620729458</v>
+        <v>1.000704556793738</v>
       </c>
       <c r="M2">
-        <v>0.9688506495839674</v>
+        <v>0.9679207705397513</v>
       </c>
       <c r="N2">
-        <v>0.9684784048629562</v>
+        <v>1.00457587590804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9597441744587398</v>
+        <v>0.986139100509645</v>
       </c>
       <c r="D3">
-        <v>0.9723334323367205</v>
+        <v>0.99460855635588</v>
       </c>
       <c r="E3">
-        <v>0.969654314793572</v>
+        <v>0.9940525765414785</v>
       </c>
       <c r="F3">
-        <v>0.9738036494402015</v>
+        <v>0.9647708505441303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039324864337473</v>
+        <v>1.038035030298155</v>
       </c>
       <c r="J3">
-        <v>0.9813958358900698</v>
+        <v>1.007014894616964</v>
       </c>
       <c r="K3">
-        <v>0.9833329944971172</v>
+        <v>1.005310889707853</v>
       </c>
       <c r="L3">
-        <v>0.980690785496498</v>
+        <v>1.004762125660518</v>
       </c>
       <c r="M3">
-        <v>0.9847830660156048</v>
+        <v>0.975875263516729</v>
       </c>
       <c r="N3">
-        <v>0.9827895305447093</v>
+        <v>1.006008627245916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9698285179320385</v>
+        <v>0.9899700726504715</v>
       </c>
       <c r="D4">
-        <v>0.9821389913525773</v>
+        <v>0.9978240332147368</v>
       </c>
       <c r="E4">
-        <v>0.9783207591092624</v>
+        <v>0.9971784035969218</v>
       </c>
       <c r="F4">
-        <v>0.984132705520871</v>
+        <v>0.97038988361682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040312928487814</v>
+        <v>1.038832603061525</v>
       </c>
       <c r="J4">
-        <v>0.9900368212828589</v>
+        <v>1.009633871999157</v>
       </c>
       <c r="K4">
-        <v>0.992457872637985</v>
+        <v>1.007948791378144</v>
       </c>
       <c r="L4">
-        <v>0.9886880725668503</v>
+        <v>1.007311002516891</v>
       </c>
       <c r="M4">
-        <v>0.994426483913354</v>
+        <v>0.9808593205923613</v>
       </c>
       <c r="N4">
-        <v>0.991442787127891</v>
+        <v>1.006906888500674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9739212443361748</v>
+        <v>0.9915552343132557</v>
       </c>
       <c r="D5">
-        <v>0.9861206686452404</v>
+        <v>0.9991557265290267</v>
       </c>
       <c r="E5">
-        <v>0.9818400558581406</v>
+        <v>0.9984732749322667</v>
       </c>
       <c r="F5">
-        <v>0.9883276789880201</v>
+        <v>0.9727118114453778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040709086081182</v>
+        <v>1.039159205906201</v>
       </c>
       <c r="J5">
-        <v>0.99354211924837</v>
+        <v>1.010716135970712</v>
       </c>
       <c r="K5">
-        <v>0.9961606549009069</v>
+        <v>1.009039495570405</v>
       </c>
       <c r="L5">
-        <v>0.9919324681113135</v>
+        <v>1.008365097406784</v>
       </c>
       <c r="M5">
-        <v>0.9983408556989105</v>
+        <v>0.9829179423269374</v>
       </c>
       <c r="N5">
-        <v>0.9949530630185764</v>
+        <v>1.007277937154115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9746003525748715</v>
+        <v>0.9918199398763263</v>
       </c>
       <c r="D6">
-        <v>0.9867814667119784</v>
+        <v>0.9993781748871</v>
       </c>
       <c r="E6">
-        <v>0.9824241224056153</v>
+        <v>0.9986895901954735</v>
       </c>
       <c r="F6">
-        <v>0.9890239204610969</v>
+        <v>0.9730993828556488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040774526948296</v>
+        <v>1.039213542968379</v>
       </c>
       <c r="J6">
-        <v>0.9941236519421286</v>
+        <v>1.01089677951509</v>
       </c>
       <c r="K6">
-        <v>0.9967750210693109</v>
+        <v>1.009221584140449</v>
       </c>
       <c r="L6">
-        <v>0.9924707278914481</v>
+        <v>1.008541085805405</v>
       </c>
       <c r="M6">
-        <v>0.9989903988585995</v>
+        <v>0.9832615077650839</v>
       </c>
       <c r="N6">
-        <v>0.9955354215554632</v>
+        <v>1.007339860804954</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9698837573702639</v>
+        <v>0.9899913516320213</v>
       </c>
       <c r="D7">
-        <v>0.982192723945986</v>
+        <v>0.9978419049690455</v>
       </c>
       <c r="E7">
-        <v>0.9783682514459672</v>
+        <v>0.9971957799901378</v>
       </c>
       <c r="F7">
-        <v>0.9841893135528498</v>
+        <v>0.9704210643677126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040318295117347</v>
+        <v>1.03883700090482</v>
       </c>
       <c r="J7">
-        <v>0.9900841390596153</v>
+        <v>1.009648405744406</v>
       </c>
       <c r="K7">
-        <v>0.9925078514760783</v>
+        <v>1.007963436022927</v>
       </c>
       <c r="L7">
-        <v>0.9887318676506999</v>
+        <v>1.007325154832247</v>
       </c>
       <c r="M7">
-        <v>0.9944793139952491</v>
+        <v>0.9808869691544129</v>
       </c>
       <c r="N7">
-        <v>0.9914901721013183</v>
+        <v>1.006911871922999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9488691284887319</v>
+        <v>0.9821290845322547</v>
       </c>
       <c r="D8">
-        <v>0.9617673670803351</v>
+        <v>0.9912471821642826</v>
       </c>
       <c r="E8">
-        <v>0.9603169113310247</v>
+        <v>0.9907860190215533</v>
       </c>
       <c r="F8">
-        <v>0.9626758270800183</v>
+        <v>0.9588768642222563</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038242807282647</v>
+        <v>1.037188441738397</v>
       </c>
       <c r="J8">
-        <v>0.9720721578112546</v>
+        <v>1.004268697262432</v>
       </c>
       <c r="K8">
-        <v>0.973491398308572</v>
+        <v>1.002547035964868</v>
       </c>
       <c r="L8">
-        <v>0.9720626681282658</v>
+        <v>1.002092263198105</v>
       </c>
       <c r="M8">
-        <v>0.9743862933997625</v>
+        <v>0.9706442734728961</v>
       </c>
       <c r="N8">
-        <v>0.9734526117735817</v>
+        <v>1.005066250735621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9051913107303338</v>
+        <v>0.9673497407474138</v>
       </c>
       <c r="D9">
-        <v>0.9194214922538358</v>
+        <v>0.9788964111049564</v>
       </c>
       <c r="E9">
-        <v>0.9229207846154009</v>
+        <v>0.9787929506140463</v>
       </c>
       <c r="F9">
-        <v>0.918091238690495</v>
+        <v>0.9370232549775387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033780348416547</v>
+        <v>1.033978544986529</v>
       </c>
       <c r="J9">
-        <v>0.934601636179516</v>
+        <v>0.9941105931249635</v>
       </c>
       <c r="K9">
-        <v>0.9339728174434073</v>
+        <v>0.9923414177289813</v>
       </c>
       <c r="L9">
-        <v>0.9374018245287458</v>
+        <v>0.9922397308843055</v>
       </c>
       <c r="M9">
-        <v>0.9326694679407995</v>
+        <v>0.9512280044511549</v>
       </c>
       <c r="N9">
-        <v>0.9359288777031972</v>
+        <v>1.001577323109754</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8688337623645644</v>
+        <v>0.9567666549044783</v>
       </c>
       <c r="D10">
-        <v>0.8842926395688308</v>
+        <v>0.9700883321487619</v>
       </c>
       <c r="E10">
-        <v>0.8919504413873039</v>
+        <v>0.9702486335660524</v>
       </c>
       <c r="F10">
-        <v>0.8811030904592164</v>
+        <v>0.9212204939617656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029997637802659</v>
+        <v>1.031607957332604</v>
       </c>
       <c r="J10">
-        <v>0.9034272784811742</v>
+        <v>0.9868071675017814</v>
       </c>
       <c r="K10">
-        <v>0.901120703978311</v>
+        <v>0.9850195014257446</v>
       </c>
       <c r="L10">
-        <v>0.9085892227151564</v>
+        <v>0.9851766703017838</v>
       </c>
       <c r="M10">
-        <v>0.8980113040720993</v>
+        <v>0.9371743947032523</v>
       </c>
       <c r="N10">
-        <v>0.9047102488411748</v>
+        <v>0.9990670925761901</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8501933316440257</v>
+        <v>0.951982471831836</v>
       </c>
       <c r="D11">
-        <v>0.8663287884370108</v>
+        <v>0.9661162705979316</v>
       </c>
       <c r="E11">
-        <v>0.876139467575085</v>
+        <v>0.96639782895321</v>
       </c>
       <c r="F11">
-        <v>0.8621816365208633</v>
+        <v>0.9140264281538252</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028055947299999</v>
+        <v>1.030520013295858</v>
       </c>
       <c r="J11">
-        <v>0.8874652659219443</v>
+        <v>0.9834988666299401</v>
       </c>
       <c r="K11">
-        <v>0.8843043229839402</v>
+        <v>0.9817067805078545</v>
       </c>
       <c r="L11">
-        <v>0.8938477353096529</v>
+        <v>0.9819825281114437</v>
       </c>
       <c r="M11">
-        <v>0.8802726489112844</v>
+        <v>0.9307747433470527</v>
       </c>
       <c r="N11">
-        <v>0.8887255683932422</v>
+        <v>0.9979298170246446</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.842642967084588</v>
+        <v>0.9501723113412986</v>
       </c>
       <c r="D12">
-        <v>0.8590621223618745</v>
+        <v>0.9646149548849385</v>
       </c>
       <c r="E12">
-        <v>0.8697497370412571</v>
+        <v>0.9649427167753979</v>
       </c>
       <c r="F12">
-        <v>0.8545255865017172</v>
+        <v>0.9112954993053727</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027271081733378</v>
+        <v>1.030105999782223</v>
       </c>
       <c r="J12">
-        <v>0.8810055986298894</v>
+        <v>0.982246136838859</v>
       </c>
       <c r="K12">
-        <v>0.8774993364725122</v>
+        <v>0.9804529951428895</v>
       </c>
       <c r="L12">
-        <v>0.8878845344555031</v>
+        <v>0.9807738561605185</v>
       </c>
       <c r="M12">
-        <v>0.8730943056631769</v>
+        <v>0.928345232114455</v>
       </c>
       <c r="N12">
-        <v>0.8822567276326982</v>
+        <v>0.9974991657312179</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8442955305526865</v>
+        <v>0.9505621440901459</v>
       </c>
       <c r="D13">
-        <v>0.8606521025881428</v>
+        <v>0.9649382028274526</v>
       </c>
       <c r="E13">
-        <v>0.8711475214182604</v>
+        <v>0.9652559994125084</v>
       </c>
       <c r="F13">
-        <v>0.8562008787343843</v>
+        <v>0.9118840562332127</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027442751987483</v>
+        <v>1.030195266934447</v>
       </c>
       <c r="J13">
-        <v>0.8824191203016506</v>
+        <v>0.982515966737711</v>
       </c>
       <c r="K13">
-        <v>0.878988408718365</v>
+        <v>0.9807230240878654</v>
       </c>
       <c r="L13">
-        <v>0.8891892858031395</v>
+        <v>0.9810341581625727</v>
       </c>
       <c r="M13">
-        <v>0.8746650937531908</v>
+        <v>0.9288688333081282</v>
       </c>
       <c r="N13">
-        <v>0.8836722566673668</v>
+        <v>0.9975919252142894</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8495836008212481</v>
+        <v>0.9518335362598828</v>
       </c>
       <c r="D14">
-        <v>0.8657417565126624</v>
+        <v>0.9659927135748463</v>
       </c>
       <c r="E14">
-        <v>0.8756231418036552</v>
+        <v>0.9662780667378474</v>
       </c>
       <c r="F14">
-        <v>0.8615631963296243</v>
+        <v>0.9138019245442996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027992518628407</v>
+        <v>1.030485997010926</v>
       </c>
       <c r="J14">
-        <v>0.8869434792262596</v>
+        <v>0.9833958150532723</v>
       </c>
       <c r="K14">
-        <v>0.8837546362970532</v>
+        <v>0.9816036294151712</v>
       </c>
       <c r="L14">
-        <v>0.8933659945223321</v>
+        <v>0.9818830837377156</v>
       </c>
       <c r="M14">
-        <v>0.8796928102668089</v>
+        <v>0.930575020794348</v>
       </c>
       <c r="N14">
-        <v>0.8882030407006001</v>
+        <v>0.9978943909773541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8527507337842771</v>
+        <v>0.9526124061898931</v>
       </c>
       <c r="D15">
-        <v>0.8687913836285356</v>
+        <v>0.9666389288305998</v>
       </c>
       <c r="E15">
-        <v>0.8783057052990875</v>
+        <v>0.9669044500701311</v>
       </c>
       <c r="F15">
-        <v>0.8647759022998909</v>
+        <v>0.9149756103016699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028322064806342</v>
+        <v>1.030663791669922</v>
       </c>
       <c r="J15">
-        <v>0.8896540504928592</v>
+        <v>0.9839346910268501</v>
       </c>
       <c r="K15">
-        <v>0.8866101572772848</v>
+        <v>0.9821430510449437</v>
       </c>
       <c r="L15">
-        <v>0.8958686417789082</v>
+        <v>0.9824031309426751</v>
       </c>
       <c r="M15">
-        <v>0.8827049558481191</v>
+        <v>0.9316191480913222</v>
       </c>
       <c r="N15">
-        <v>0.890917461289305</v>
+        <v>0.9980796402301109</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8699962276796788</v>
+        <v>0.9570796858211671</v>
       </c>
       <c r="D16">
-        <v>0.8854139993459474</v>
+        <v>0.970348435644557</v>
       </c>
       <c r="E16">
-        <v>0.8929380677454783</v>
+        <v>0.9705008466935617</v>
       </c>
       <c r="F16">
-        <v>0.8822840271753393</v>
+        <v>0.9216900507680561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030118818404088</v>
+        <v>1.03167881058802</v>
       </c>
       <c r="J16">
-        <v>0.9044232979068121</v>
+        <v>0.9870234935553918</v>
       </c>
       <c r="K16">
-        <v>0.9021701088520941</v>
+        <v>0.9852362002533825</v>
       </c>
       <c r="L16">
-        <v>0.9095093581256957</v>
+        <v>0.9853856438440146</v>
       </c>
       <c r="M16">
-        <v>0.8991182734996268</v>
+        <v>0.9375920720546973</v>
       </c>
       <c r="N16">
-        <v>0.905707682728642</v>
+        <v>0.9991414555004695</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8799375518953787</v>
+        <v>0.9598260395725151</v>
       </c>
       <c r="D17">
-        <v>0.8950088351065859</v>
+        <v>0.9726315433781795</v>
       </c>
       <c r="E17">
-        <v>0.9013915088552181</v>
+        <v>0.9727149592262871</v>
       </c>
       <c r="F17">
-        <v>0.8923878579490735</v>
+        <v>0.9258038528482322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031155038202365</v>
+        <v>1.032298604961456</v>
       </c>
       <c r="J17">
-        <v>0.9129435420233558</v>
+        <v>0.988920658681243</v>
       </c>
       <c r="K17">
-        <v>0.9111475041318216</v>
+        <v>0.9871370831922643</v>
       </c>
       <c r="L17">
-        <v>0.9173816956322961</v>
+        <v>0.9872189271149983</v>
       </c>
       <c r="M17">
-        <v>0.9085883245129984</v>
+        <v>0.9412511597593567</v>
       </c>
       <c r="N17">
-        <v>0.9142400265691168</v>
+        <v>0.9997935940309158</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8854734121225989</v>
+        <v>0.9614086944032092</v>
       </c>
       <c r="D18">
-        <v>0.9003555964504822</v>
+        <v>0.9739481468753336</v>
       </c>
       <c r="E18">
-        <v>0.9061043518716773</v>
+        <v>0.9739919910425645</v>
       </c>
       <c r="F18">
-        <v>0.8980177422521968</v>
+        <v>0.9281699086553856</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03173171925549</v>
+        <v>1.032654239754563</v>
       </c>
       <c r="J18">
-        <v>0.9176896922396847</v>
+        <v>0.9900133145855612</v>
       </c>
       <c r="K18">
-        <v>0.9161487339855645</v>
+        <v>0.9882322500907174</v>
       </c>
       <c r="L18">
-        <v>0.9217678459204662</v>
+        <v>0.9882752837975389</v>
       </c>
       <c r="M18">
-        <v>0.9138642363064859</v>
+        <v>0.9433555016678568</v>
       </c>
       <c r="N18">
-        <v>0.9189929168631439</v>
+        <v>1.000169167998364</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8873204455660205</v>
+        <v>0.9619451535340603</v>
       </c>
       <c r="D19">
-        <v>0.9021401379114506</v>
+        <v>0.9743945754074492</v>
       </c>
       <c r="E19">
-        <v>0.9076776362965736</v>
+        <v>0.9744250377053774</v>
       </c>
       <c r="F19">
-        <v>0.8998967106111968</v>
+        <v>0.9289711639132365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03192402944789</v>
+        <v>1.032774523414772</v>
       </c>
       <c r="J19">
-        <v>0.9192734640906886</v>
+        <v>0.990383574926322</v>
       </c>
       <c r="K19">
-        <v>0.9178177024235681</v>
+        <v>0.9886034233895041</v>
       </c>
       <c r="L19">
-        <v>0.9232316258293367</v>
+        <v>0.9886333262967031</v>
       </c>
       <c r="M19">
-        <v>0.9156249170605587</v>
+        <v>0.9440680936800993</v>
       </c>
       <c r="N19">
-        <v>0.9205789378518376</v>
+        <v>1.000296432084021</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8788991253553524</v>
+        <v>0.9595333917079334</v>
       </c>
       <c r="D20">
-        <v>0.8940061834599493</v>
+        <v>0.9723881635438575</v>
       </c>
       <c r="E20">
-        <v>0.9005078975528952</v>
+        <v>0.9724789117015572</v>
       </c>
       <c r="F20">
-        <v>0.891332076010828</v>
+        <v>0.9253659813153694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031046824917028</v>
+        <v>1.032232719713365</v>
       </c>
       <c r="J20">
-        <v>0.9120533713079779</v>
+        <v>0.9887185648510112</v>
       </c>
       <c r="K20">
-        <v>0.910209528022466</v>
+        <v>0.9869345547367688</v>
       </c>
       <c r="L20">
-        <v>0.9165591161858265</v>
+        <v>0.9870235867563969</v>
       </c>
       <c r="M20">
-        <v>0.9075988531302261</v>
+        <v>0.9408617061873191</v>
       </c>
       <c r="N20">
-        <v>0.9133485917092191</v>
+        <v>0.9997241274449709</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8480459212381036</v>
+        <v>0.9514600811853208</v>
       </c>
       <c r="D21">
-        <v>0.8642614849857767</v>
+        <v>0.9656829206541815</v>
       </c>
       <c r="E21">
-        <v>0.8743212692904728</v>
+        <v>0.9659777945660325</v>
       </c>
       <c r="F21">
-        <v>0.8600036887911331</v>
+        <v>0.9132388338434355</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027832591870306</v>
+        <v>1.030400663437146</v>
       </c>
       <c r="J21">
-        <v>0.8856276889615886</v>
+        <v>0.9831373979798078</v>
       </c>
       <c r="K21">
-        <v>0.8823684962306901</v>
+        <v>0.9813449728164653</v>
       </c>
       <c r="L21">
-        <v>0.8921512317700303</v>
+        <v>0.981633725743755</v>
       </c>
       <c r="M21">
-        <v>0.8782306318237669</v>
+        <v>0.9300740830133705</v>
       </c>
       <c r="N21">
-        <v>0.8868853818628298</v>
+        <v>0.9978055548772465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8247924145719587</v>
+        <v>0.9461908702522689</v>
       </c>
       <c r="D22">
-        <v>0.8419056274389167</v>
+        <v>0.9613158356102347</v>
       </c>
       <c r="E22">
-        <v>0.8546792025429621</v>
+        <v>0.9617458456634209</v>
       </c>
       <c r="F22">
-        <v>0.836444009175933</v>
+        <v>0.9052705401217089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02542202387355</v>
+        <v>1.029191081939405</v>
       </c>
       <c r="J22">
-        <v>0.8657497119901104</v>
+        <v>0.9794889557392167</v>
       </c>
       <c r="K22">
-        <v>0.861428220050349</v>
+        <v>0.9776946612242152</v>
       </c>
       <c r="L22">
-        <v>0.8738075904688366</v>
+        <v>0.978115221913376</v>
       </c>
       <c r="M22">
-        <v>0.8561402486384683</v>
+        <v>0.922985149848045</v>
       </c>
       <c r="N22">
-        <v>0.8669791758840164</v>
+        <v>0.99655134022418</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8375942562215551</v>
+        <v>0.9490035328722711</v>
       </c>
       <c r="D23">
-        <v>0.8542063341825722</v>
+        <v>0.9636460464776128</v>
       </c>
       <c r="E23">
-        <v>0.8654820533407183</v>
+        <v>0.9640037351748177</v>
       </c>
       <c r="F23">
-        <v>0.8494088398463528</v>
+        <v>0.9095294807891348</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026747072534261</v>
+        <v>1.029838020839115</v>
       </c>
       <c r="J23">
-        <v>0.876688344095485</v>
+        <v>0.9814370016243416</v>
       </c>
       <c r="K23">
-        <v>0.8729513623944815</v>
+        <v>0.9796433557129763</v>
       </c>
       <c r="L23">
-        <v>0.883899964550647</v>
+        <v>0.97999341700433</v>
       </c>
       <c r="M23">
-        <v>0.8682966728356478</v>
+        <v>0.9267741087528997</v>
       </c>
       <c r="N23">
-        <v>0.8779333421016592</v>
+        <v>0.9972210097872835</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8793691452051283</v>
+        <v>0.9596656859521219</v>
       </c>
       <c r="D24">
-        <v>0.8944599986784825</v>
+        <v>0.9724981829022746</v>
       </c>
       <c r="E24">
-        <v>0.9009078267445693</v>
+        <v>0.9725856158357984</v>
       </c>
       <c r="F24">
-        <v>0.8918099403662029</v>
+        <v>0.9255639395618999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031095806363989</v>
+        <v>1.032262508544917</v>
       </c>
       <c r="J24">
-        <v>0.9124562816188112</v>
+        <v>0.988809925251822</v>
       </c>
       <c r="K24">
-        <v>0.9106340747188828</v>
+        <v>0.9870261104712686</v>
       </c>
       <c r="L24">
-        <v>0.9169314304186326</v>
+        <v>0.9871118925916458</v>
       </c>
       <c r="M24">
-        <v>0.9080467068694458</v>
+        <v>0.9410377756413046</v>
       </c>
       <c r="N24">
-        <v>0.9137520741989082</v>
+        <v>0.9997555312129723</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9174909304801152</v>
+        <v>0.9712905703925916</v>
       </c>
       <c r="D25">
-        <v>0.93133082370047</v>
+        <v>0.9821839042607228</v>
       </c>
       <c r="E25">
-        <v>0.9334325711165332</v>
+        <v>0.9819838283641446</v>
       </c>
       <c r="F25">
-        <v>0.9306292805809876</v>
+        <v>0.9428726974368545</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035050712826832</v>
+        <v>1.034846974948725</v>
       </c>
       <c r="J25">
-        <v>0.9451541523830937</v>
+        <v>0.9968243144336838</v>
       </c>
       <c r="K25">
-        <v>0.9450976945021391</v>
+        <v>0.9950652352266426</v>
       </c>
       <c r="L25">
-        <v>0.9471603499594264</v>
+        <v>0.9948684125054184</v>
       </c>
       <c r="M25">
-        <v>0.9444092512068905</v>
+        <v>0.9564276868015883</v>
       </c>
       <c r="N25">
-        <v>0.9464963796901744</v>
+        <v>1.002509756211206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9800458106865449</v>
+        <v>1.022897867616783</v>
       </c>
       <c r="D2">
-        <v>0.9895026407410047</v>
+        <v>1.024548578315914</v>
       </c>
       <c r="E2">
-        <v>0.9890911223776895</v>
+        <v>1.023566386591893</v>
       </c>
       <c r="F2">
-        <v>0.9558094168794226</v>
+        <v>1.021353823986725</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036744185155603</v>
+        <v>1.028836520122798</v>
       </c>
       <c r="J2">
-        <v>1.002840180793055</v>
+        <v>1.028081120431348</v>
       </c>
       <c r="K2">
-        <v>1.001110183963144</v>
+        <v>1.027376755783184</v>
       </c>
       <c r="L2">
-        <v>1.000704556793738</v>
+        <v>1.026397447707555</v>
       </c>
       <c r="M2">
-        <v>0.9679207705397513</v>
+        <v>1.024191403148723</v>
       </c>
       <c r="N2">
-        <v>1.00457587590804</v>
+        <v>1.013345579854189</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.986139100509645</v>
+        <v>1.024112492986348</v>
       </c>
       <c r="D3">
-        <v>0.99460855635588</v>
+        <v>1.025612430444894</v>
       </c>
       <c r="E3">
-        <v>0.9940525765414785</v>
+        <v>1.024604717178594</v>
       </c>
       <c r="F3">
-        <v>0.9647708505441303</v>
+        <v>1.023210306529709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038035030298155</v>
+        <v>1.02901050710983</v>
       </c>
       <c r="J3">
-        <v>1.007014894616964</v>
+        <v>1.028932617071243</v>
       </c>
       <c r="K3">
-        <v>1.005310889707853</v>
+        <v>1.028247024285459</v>
       </c>
       <c r="L3">
-        <v>1.004762125660518</v>
+        <v>1.02724205374203</v>
       </c>
       <c r="M3">
-        <v>0.975875263516729</v>
+        <v>1.02585144794885</v>
       </c>
       <c r="N3">
-        <v>1.006008627245916</v>
+        <v>1.0136334068263</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9899700726504715</v>
+        <v>1.024897374572487</v>
       </c>
       <c r="D4">
-        <v>0.9978240332147368</v>
+        <v>1.026300124278936</v>
       </c>
       <c r="E4">
-        <v>0.9971784035969218</v>
+        <v>1.025276011632317</v>
       </c>
       <c r="F4">
-        <v>0.97038988361682</v>
+        <v>1.02441020130392</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038832603061525</v>
+        <v>1.029121183798649</v>
       </c>
       <c r="J4">
-        <v>1.009633871999157</v>
+        <v>1.029482068952284</v>
       </c>
       <c r="K4">
-        <v>1.007948791378144</v>
+        <v>1.028808869025283</v>
       </c>
       <c r="L4">
-        <v>1.007311002516891</v>
+        <v>1.027787402178921</v>
       </c>
       <c r="M4">
-        <v>0.9808593205923613</v>
+        <v>1.026923833129279</v>
       </c>
       <c r="N4">
-        <v>1.006906888500674</v>
+        <v>1.013818980799488</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9915552343132557</v>
+        <v>1.025227088642129</v>
       </c>
       <c r="D5">
-        <v>0.9991557265290267</v>
+        <v>1.026589068635823</v>
       </c>
       <c r="E5">
-        <v>0.9984732749322667</v>
+        <v>1.025558088940975</v>
       </c>
       <c r="F5">
-        <v>0.9727118114453778</v>
+        <v>1.024914320199654</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039159205906201</v>
+        <v>1.029167256991269</v>
       </c>
       <c r="J5">
-        <v>1.010716135970712</v>
+        <v>1.029712696765717</v>
       </c>
       <c r="K5">
-        <v>1.009039495570405</v>
+        <v>1.02904476560129</v>
       </c>
       <c r="L5">
-        <v>1.008365097406784</v>
+        <v>1.028016389629528</v>
       </c>
       <c r="M5">
-        <v>0.9829179423269374</v>
+        <v>1.027374249578921</v>
       </c>
       <c r="N5">
-        <v>1.007277937154115</v>
+        <v>1.013896836746027</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9918199398763263</v>
+        <v>1.025282434536608</v>
       </c>
       <c r="D6">
-        <v>0.9993781748871</v>
+        <v>1.026637574243117</v>
       </c>
       <c r="E6">
-        <v>0.9986895901954735</v>
+        <v>1.025605443132205</v>
       </c>
       <c r="F6">
-        <v>0.9730993828556488</v>
+        <v>1.024998945745689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039213542968379</v>
+        <v>1.029174966203776</v>
       </c>
       <c r="J6">
-        <v>1.01089677951509</v>
+        <v>1.029751399061863</v>
       </c>
       <c r="K6">
-        <v>1.009221584140449</v>
+        <v>1.029084355990197</v>
       </c>
       <c r="L6">
-        <v>1.008541085805405</v>
+        <v>1.028054821460604</v>
       </c>
       <c r="M6">
-        <v>0.9832615077650839</v>
+        <v>1.027449852496352</v>
       </c>
       <c r="N6">
-        <v>1.007339860804954</v>
+        <v>1.013909899783141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9899913516320213</v>
+        <v>1.024901781205811</v>
       </c>
       <c r="D7">
-        <v>0.9978419049690455</v>
+        <v>1.026303985800989</v>
       </c>
       <c r="E7">
-        <v>0.9971957799901378</v>
+        <v>1.025279781289733</v>
       </c>
       <c r="F7">
-        <v>0.9704210643677126</v>
+        <v>1.024416938595591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03883700090482</v>
+        <v>1.029121801219071</v>
       </c>
       <c r="J7">
-        <v>1.009648405744406</v>
+        <v>1.029485152030261</v>
       </c>
       <c r="K7">
-        <v>1.007963436022927</v>
+        <v>1.02881202227383</v>
       </c>
       <c r="L7">
-        <v>1.007325154832247</v>
+        <v>1.027790463005771</v>
       </c>
       <c r="M7">
-        <v>0.9808869691544129</v>
+        <v>1.026929853230686</v>
       </c>
       <c r="N7">
-        <v>1.006911871922999</v>
+        <v>1.013820021739514</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9821290845322547</v>
+        <v>1.023308578401713</v>
       </c>
       <c r="D8">
-        <v>0.9912471821642826</v>
+        <v>1.024908256710589</v>
       </c>
       <c r="E8">
-        <v>0.9907860190215533</v>
+        <v>1.02391741596438</v>
       </c>
       <c r="F8">
-        <v>0.9588768642222563</v>
+        <v>1.021981522584479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037188441738397</v>
+        <v>1.028895714584516</v>
       </c>
       <c r="J8">
-        <v>1.004268697262432</v>
+        <v>1.028369204912996</v>
       </c>
       <c r="K8">
-        <v>1.002547035964868</v>
+        <v>1.027671133241189</v>
       </c>
       <c r="L8">
-        <v>1.002092263198105</v>
+        <v>1.026683129729496</v>
       </c>
       <c r="M8">
-        <v>0.9706442734728961</v>
+        <v>1.024752796952905</v>
       </c>
       <c r="N8">
-        <v>1.005066250735621</v>
+        <v>1.013442991450892</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9673497407474138</v>
+        <v>1.020492828727199</v>
       </c>
       <c r="D9">
-        <v>0.9788964111049564</v>
+        <v>1.022443387821461</v>
       </c>
       <c r="E9">
-        <v>0.9787929506140463</v>
+        <v>1.021512227276311</v>
       </c>
       <c r="F9">
-        <v>0.9370232549775387</v>
+        <v>1.017678950802846</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033978544986529</v>
+        <v>1.028482704505776</v>
       </c>
       <c r="J9">
-        <v>0.9941105931249635</v>
+        <v>1.026390963257555</v>
       </c>
       <c r="K9">
-        <v>0.9923414177289813</v>
+        <v>1.025650832601068</v>
       </c>
       <c r="L9">
-        <v>0.9922397308843055</v>
+        <v>1.024722801819336</v>
       </c>
       <c r="M9">
-        <v>0.9512280044511549</v>
+        <v>1.020902475815382</v>
       </c>
       <c r="N9">
-        <v>1.001577323109754</v>
+        <v>1.01277344954745</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9567666549044783</v>
+        <v>1.01860980188011</v>
       </c>
       <c r="D10">
-        <v>0.9700883321487619</v>
+        <v>1.020796309888351</v>
       </c>
       <c r="E10">
-        <v>0.9702486335660524</v>
+        <v>1.019905547881662</v>
       </c>
       <c r="F10">
-        <v>0.9212204939617656</v>
+        <v>1.014802381645719</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031607957332604</v>
+        <v>1.02819749344782</v>
       </c>
       <c r="J10">
-        <v>0.9868071675017814</v>
+        <v>1.025064013057227</v>
       </c>
       <c r="K10">
-        <v>0.9850195014257446</v>
+        <v>1.0242971236889</v>
       </c>
       <c r="L10">
-        <v>0.9851766703017838</v>
+        <v>1.023409653109198</v>
       </c>
       <c r="M10">
-        <v>0.9371743947032523</v>
+        <v>1.018325466697646</v>
       </c>
       <c r="N10">
-        <v>0.9990670925761901</v>
+        <v>1.012323557447222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.951982471831836</v>
+        <v>1.017792980709856</v>
       </c>
       <c r="D11">
-        <v>0.9661162705979316</v>
+        <v>1.020082154698731</v>
       </c>
       <c r="E11">
-        <v>0.96639782895321</v>
+        <v>1.019209033928194</v>
       </c>
       <c r="F11">
-        <v>0.9140264281538252</v>
+        <v>1.013554685261694</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030520013295858</v>
+        <v>1.028071642444004</v>
       </c>
       <c r="J11">
-        <v>0.9834988666299401</v>
+        <v>1.02448745964746</v>
       </c>
       <c r="K11">
-        <v>0.9817067805078545</v>
+        <v>1.023709289119862</v>
       </c>
       <c r="L11">
-        <v>0.9819825281114437</v>
+        <v>1.022839521305497</v>
       </c>
       <c r="M11">
-        <v>0.9307747433470527</v>
+        <v>1.017207041708533</v>
       </c>
       <c r="N11">
-        <v>0.9979298170246446</v>
+        <v>1.012127898644732</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9501723113412986</v>
+        <v>1.017489352641783</v>
       </c>
       <c r="D12">
-        <v>0.9646149548849385</v>
+        <v>1.019816737659617</v>
       </c>
       <c r="E12">
-        <v>0.9649427167753979</v>
+        <v>1.018950192196633</v>
       </c>
       <c r="F12">
-        <v>0.9112954993053727</v>
+        <v>1.013090901784383</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030105999782223</v>
+        <v>1.028024541359337</v>
       </c>
       <c r="J12">
-        <v>0.982246136838859</v>
+        <v>1.02427300149963</v>
       </c>
       <c r="K12">
-        <v>0.9804529951428895</v>
+        <v>1.023490686717844</v>
       </c>
       <c r="L12">
-        <v>0.9807738561605185</v>
+        <v>1.022627515745454</v>
       </c>
       <c r="M12">
-        <v>0.928345232114455</v>
+        <v>1.016791210876963</v>
       </c>
       <c r="N12">
-        <v>0.9974991657312179</v>
+        <v>1.012055092997477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9505621440901459</v>
+        <v>1.017554492128643</v>
       </c>
       <c r="D13">
-        <v>0.9649382028274526</v>
+        <v>1.01987367727502</v>
       </c>
       <c r="E13">
-        <v>0.9652559994125084</v>
+        <v>1.019005720360669</v>
       </c>
       <c r="F13">
-        <v>0.9118840562332127</v>
+        <v>1.013190400240271</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030195266934447</v>
+        <v>1.028034660755397</v>
       </c>
       <c r="J13">
-        <v>0.982515966737711</v>
+        <v>1.024319017161608</v>
       </c>
       <c r="K13">
-        <v>0.9807230240878654</v>
+        <v>1.02353758924893</v>
       </c>
       <c r="L13">
-        <v>0.9810341581625727</v>
+        <v>1.022673002266473</v>
       </c>
       <c r="M13">
-        <v>0.9288688333081282</v>
+        <v>1.016880426220592</v>
       </c>
       <c r="N13">
-        <v>0.9975919252142894</v>
+        <v>1.012070715923997</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9518335362598828</v>
+        <v>1.017767887325551</v>
       </c>
       <c r="D14">
-        <v>0.9659927135748463</v>
+        <v>1.02006021828506</v>
       </c>
       <c r="E14">
-        <v>0.9662780667378474</v>
+        <v>1.019187640569562</v>
       </c>
       <c r="F14">
-        <v>0.9138019245442996</v>
+        <v>1.013516355662337</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030485997010926</v>
+        <v>1.028067756289202</v>
       </c>
       <c r="J14">
-        <v>0.9833958150532723</v>
+        <v>1.024469738623029</v>
       </c>
       <c r="K14">
-        <v>0.9816036294151712</v>
+        <v>1.023691224589292</v>
       </c>
       <c r="L14">
-        <v>0.9818830837377156</v>
+        <v>1.022822001637215</v>
       </c>
       <c r="M14">
-        <v>0.930575020794348</v>
+        <v>1.017172677196371</v>
       </c>
       <c r="N14">
-        <v>0.9978943909773541</v>
+        <v>1.012121883150821</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9526124061898931</v>
+        <v>1.017899337267353</v>
       </c>
       <c r="D15">
-        <v>0.9666389288305998</v>
+        <v>1.02017513263052</v>
       </c>
       <c r="E15">
-        <v>0.9669044500701311</v>
+        <v>1.019299710885415</v>
       </c>
       <c r="F15">
-        <v>0.9149756103016699</v>
+        <v>1.013717142928573</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030663791669922</v>
+        <v>1.02808810054746</v>
       </c>
       <c r="J15">
-        <v>0.9839346910268501</v>
+        <v>1.024562563151414</v>
       </c>
       <c r="K15">
-        <v>0.9821430510449437</v>
+        <v>1.023785850564479</v>
       </c>
       <c r="L15">
-        <v>0.9824031309426751</v>
+        <v>1.022913774060633</v>
       </c>
       <c r="M15">
-        <v>0.9316191480913222</v>
+        <v>1.017352689541593</v>
       </c>
       <c r="N15">
-        <v>0.9980796402301109</v>
+        <v>1.012153391805066</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9570796858211671</v>
+        <v>1.018663980443001</v>
       </c>
       <c r="D16">
-        <v>0.970348435644557</v>
+        <v>1.020843685472367</v>
       </c>
       <c r="E16">
-        <v>0.9705008466935617</v>
+        <v>1.019951755824708</v>
       </c>
       <c r="F16">
-        <v>0.9216900507680561</v>
+        <v>1.014885141179314</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03167881058802</v>
+        <v>1.028205796114554</v>
       </c>
       <c r="J16">
-        <v>0.9870234935553918</v>
+        <v>1.025102235070314</v>
       </c>
       <c r="K16">
-        <v>0.9852362002533825</v>
+        <v>1.024336100846954</v>
       </c>
       <c r="L16">
-        <v>0.9853856438440146</v>
+        <v>1.02344745836025</v>
       </c>
       <c r="M16">
-        <v>0.9375920720546973</v>
+        <v>1.018399637779724</v>
       </c>
       <c r="N16">
-        <v>0.9991414555004695</v>
+        <v>1.012336524615683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9598260395725151</v>
+        <v>1.019143226832241</v>
       </c>
       <c r="D17">
-        <v>0.9726315433781795</v>
+        <v>1.021262791403321</v>
       </c>
       <c r="E17">
-        <v>0.9727149592262871</v>
+        <v>1.020360546706955</v>
       </c>
       <c r="F17">
-        <v>0.9258038528482322</v>
+        <v>1.015617217023849</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032298604961456</v>
+        <v>1.028278992876208</v>
       </c>
       <c r="J17">
-        <v>0.988920658681243</v>
+        <v>1.025440225523704</v>
       </c>
       <c r="K17">
-        <v>0.9871370831922643</v>
+        <v>1.024680808747352</v>
       </c>
       <c r="L17">
-        <v>0.9872189271149983</v>
+        <v>1.023781812478016</v>
       </c>
       <c r="M17">
-        <v>0.9412511597593567</v>
+        <v>1.019055665460718</v>
       </c>
       <c r="N17">
-        <v>0.9997935940309158</v>
+        <v>1.012451169914746</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9614086944032092</v>
+        <v>1.019422622813346</v>
       </c>
       <c r="D18">
-        <v>0.9739481468753336</v>
+        <v>1.021507156479244</v>
       </c>
       <c r="E18">
-        <v>0.9739919910425645</v>
+        <v>1.020598909489756</v>
       </c>
       <c r="F18">
-        <v>0.9281699086553856</v>
+        <v>1.016044020631899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032654239754563</v>
+        <v>1.028321460369221</v>
       </c>
       <c r="J18">
-        <v>0.9900133145855612</v>
+        <v>1.025637179315525</v>
       </c>
       <c r="K18">
-        <v>0.9882322500907174</v>
+        <v>1.0248817101812</v>
       </c>
       <c r="L18">
-        <v>0.9882752837975389</v>
+        <v>1.023976688211648</v>
       </c>
       <c r="M18">
-        <v>0.9433555016678568</v>
+        <v>1.019438068890981</v>
       </c>
       <c r="N18">
-        <v>1.000169167998364</v>
+        <v>1.012517958398931</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9619451535340603</v>
+        <v>1.019517865978145</v>
       </c>
       <c r="D19">
-        <v>0.9743945754074492</v>
+        <v>1.021590463110778</v>
       </c>
       <c r="E19">
-        <v>0.9744250377053774</v>
+        <v>1.020680171911847</v>
       </c>
       <c r="F19">
-        <v>0.9289711639132365</v>
+        <v>1.016189515494597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032774523414772</v>
+        <v>1.028335902222269</v>
       </c>
       <c r="J19">
-        <v>0.990383574926322</v>
+        <v>1.02570430330068</v>
       </c>
       <c r="K19">
-        <v>0.9886034233895041</v>
+        <v>1.024950185203658</v>
       </c>
       <c r="L19">
-        <v>0.9886333262967031</v>
+        <v>1.024043110906776</v>
       </c>
       <c r="M19">
-        <v>0.9440680936800993</v>
+        <v>1.019568417171184</v>
       </c>
       <c r="N19">
-        <v>1.000296432084021</v>
+        <v>1.012540717642127</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9595333917079334</v>
+        <v>1.019091822784575</v>
       </c>
       <c r="D20">
-        <v>0.9723881635438575</v>
+        <v>1.021217834881644</v>
       </c>
       <c r="E20">
-        <v>0.9724789117015572</v>
+        <v>1.020316695411227</v>
       </c>
       <c r="F20">
-        <v>0.9253659813153694</v>
+        <v>1.01553869340661</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032232719713365</v>
+        <v>1.028271163037061</v>
       </c>
       <c r="J20">
-        <v>0.9887185648510112</v>
+        <v>1.025403982061066</v>
       </c>
       <c r="K20">
-        <v>0.9869345547367688</v>
+        <v>1.024643841516897</v>
       </c>
       <c r="L20">
-        <v>0.9870235867563969</v>
+        <v>1.023745954713862</v>
       </c>
       <c r="M20">
-        <v>0.9408617061873191</v>
+        <v>1.018985305483119</v>
       </c>
       <c r="N20">
-        <v>0.9997241274449709</v>
+        <v>1.01243887806815</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9514600811853208</v>
+        <v>1.017705053993418</v>
       </c>
       <c r="D21">
-        <v>0.9656829206541815</v>
+        <v>1.020005290723669</v>
       </c>
       <c r="E21">
-        <v>0.9659777945660325</v>
+        <v>1.019134073093792</v>
       </c>
       <c r="F21">
-        <v>0.9132388338434355</v>
+        <v>1.013420379237975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030400663437146</v>
+        <v>1.028058020270727</v>
       </c>
       <c r="J21">
-        <v>0.9831373979798078</v>
+        <v>1.024425363236254</v>
       </c>
       <c r="K21">
-        <v>0.9813449728164653</v>
+        <v>1.023645989864674</v>
       </c>
       <c r="L21">
-        <v>0.981633725743755</v>
+        <v>1.022778131501784</v>
       </c>
       <c r="M21">
-        <v>0.9300740830133705</v>
+        <v>1.017086627659061</v>
       </c>
       <c r="N21">
-        <v>0.9978055548772465</v>
+        <v>1.012106819255397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9461908702522689</v>
+        <v>1.016831836955469</v>
       </c>
       <c r="D22">
-        <v>0.9613158356102347</v>
+        <v>1.019242057851682</v>
       </c>
       <c r="E22">
-        <v>0.9617458456634209</v>
+        <v>1.018389783971667</v>
       </c>
       <c r="F22">
-        <v>0.9052705401217089</v>
+        <v>1.012086574306288</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029191081939405</v>
+        <v>1.027921957920695</v>
       </c>
       <c r="J22">
-        <v>0.9794889557392167</v>
+        <v>1.023808326003724</v>
       </c>
       <c r="K22">
-        <v>0.9776946612242152</v>
+        <v>1.023017126824211</v>
       </c>
       <c r="L22">
-        <v>0.978115221913376</v>
+        <v>1.02216827157245</v>
       </c>
       <c r="M22">
-        <v>0.922985149848045</v>
+        <v>1.015890544409488</v>
       </c>
       <c r="N22">
-        <v>0.99655134022418</v>
+        <v>1.011897292274542</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9490035328722711</v>
+        <v>1.017294870861402</v>
       </c>
       <c r="D23">
-        <v>0.9636460464776128</v>
+        <v>1.019646744679743</v>
       </c>
       <c r="E23">
-        <v>0.9640037351748177</v>
+        <v>1.018784415879549</v>
       </c>
       <c r="F23">
-        <v>0.9095294807891348</v>
+        <v>1.012793838001866</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029838020839115</v>
+        <v>1.027994281880271</v>
       </c>
       <c r="J23">
-        <v>0.9814370016243416</v>
+        <v>1.024135595390434</v>
       </c>
       <c r="K23">
-        <v>0.9796433557129763</v>
+        <v>1.023350639965662</v>
       </c>
       <c r="L23">
-        <v>0.97999341700433</v>
+        <v>1.022491699067323</v>
       </c>
       <c r="M23">
-        <v>0.9267741087528997</v>
+        <v>1.016524833994</v>
       </c>
       <c r="N23">
-        <v>0.9972210097872835</v>
+        <v>1.012008437827369</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9596656859521219</v>
+        <v>1.019115050494305</v>
       </c>
       <c r="D24">
-        <v>0.9724981829022746</v>
+        <v>1.021238149083707</v>
       </c>
       <c r="E24">
-        <v>0.9725856158357984</v>
+        <v>1.020336510165099</v>
       </c>
       <c r="F24">
-        <v>0.9255639395618999</v>
+        <v>1.015574175477667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032262508544917</v>
+        <v>1.028274701705503</v>
       </c>
       <c r="J24">
-        <v>0.988809925251822</v>
+        <v>1.025420359509561</v>
       </c>
       <c r="K24">
-        <v>0.9870261104712686</v>
+        <v>1.024660545913884</v>
       </c>
       <c r="L24">
-        <v>0.9871118925916458</v>
+        <v>1.023762157749135</v>
       </c>
       <c r="M24">
-        <v>0.9410377756413046</v>
+        <v>1.019017098888523</v>
       </c>
       <c r="N24">
-        <v>0.9997555312129723</v>
+        <v>1.012444432478384</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9712905703925916</v>
+        <v>1.021221780912991</v>
       </c>
       <c r="D25">
-        <v>0.9821839042607228</v>
+        <v>1.023081276832552</v>
       </c>
       <c r="E25">
-        <v>0.9819838283641446</v>
+        <v>1.022134580735897</v>
       </c>
       <c r="F25">
-        <v>0.9428726974368545</v>
+        <v>1.018792656344311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034846974948725</v>
+        <v>1.028591214099793</v>
       </c>
       <c r="J25">
-        <v>0.9968243144336838</v>
+        <v>1.026903803836299</v>
       </c>
       <c r="K25">
-        <v>0.9950652352266426</v>
+        <v>1.02617432135506</v>
       </c>
       <c r="L25">
-        <v>0.9948684125054184</v>
+        <v>1.02523068508656</v>
       </c>
       <c r="M25">
-        <v>0.9564276868015883</v>
+        <v>1.021899611988771</v>
       </c>
       <c r="N25">
-        <v>1.002509756211206</v>
+        <v>1.012947160271943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022897867616783</v>
+        <v>0.9800458106865445</v>
       </c>
       <c r="D2">
-        <v>1.024548578315914</v>
+        <v>0.9895026407410044</v>
       </c>
       <c r="E2">
-        <v>1.023566386591893</v>
+        <v>0.9890911223776893</v>
       </c>
       <c r="F2">
-        <v>1.021353823986725</v>
+        <v>0.9558094168794224</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028836520122798</v>
+        <v>1.036744185155603</v>
       </c>
       <c r="J2">
-        <v>1.028081120431348</v>
+        <v>1.002840180793054</v>
       </c>
       <c r="K2">
-        <v>1.027376755783184</v>
+        <v>1.001110183963144</v>
       </c>
       <c r="L2">
-        <v>1.026397447707555</v>
+        <v>1.000704556793738</v>
       </c>
       <c r="M2">
-        <v>1.024191403148723</v>
+        <v>0.967920770539751</v>
       </c>
       <c r="N2">
-        <v>1.013345579854189</v>
+        <v>1.00457587590804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024112492986348</v>
+        <v>0.9861391005096445</v>
       </c>
       <c r="D3">
-        <v>1.025612430444894</v>
+        <v>0.9946085563558793</v>
       </c>
       <c r="E3">
-        <v>1.024604717178594</v>
+        <v>0.9940525765414777</v>
       </c>
       <c r="F3">
-        <v>1.023210306529709</v>
+        <v>0.9647708505441299</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02901050710983</v>
+        <v>1.038035030298155</v>
       </c>
       <c r="J3">
-        <v>1.028932617071243</v>
+        <v>1.007014894616963</v>
       </c>
       <c r="K3">
-        <v>1.028247024285459</v>
+        <v>1.005310889707852</v>
       </c>
       <c r="L3">
-        <v>1.02724205374203</v>
+        <v>1.004762125660518</v>
       </c>
       <c r="M3">
-        <v>1.02585144794885</v>
+        <v>0.9758752635167286</v>
       </c>
       <c r="N3">
-        <v>1.0136334068263</v>
+        <v>1.006008627245916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024897374572487</v>
+        <v>0.9899700726504719</v>
       </c>
       <c r="D4">
-        <v>1.026300124278936</v>
+        <v>0.9978240332147369</v>
       </c>
       <c r="E4">
-        <v>1.025276011632317</v>
+        <v>0.9971784035969218</v>
       </c>
       <c r="F4">
-        <v>1.02441020130392</v>
+        <v>0.9703898836168201</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029121183798649</v>
+        <v>1.038832603061525</v>
       </c>
       <c r="J4">
-        <v>1.029482068952284</v>
+        <v>1.009633871999158</v>
       </c>
       <c r="K4">
-        <v>1.028808869025283</v>
+        <v>1.007948791378144</v>
       </c>
       <c r="L4">
-        <v>1.027787402178921</v>
+        <v>1.007311002516891</v>
       </c>
       <c r="M4">
-        <v>1.026923833129279</v>
+        <v>0.9808593205923613</v>
       </c>
       <c r="N4">
-        <v>1.013818980799488</v>
+        <v>1.006906888500674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025227088642129</v>
+        <v>0.9915552343132559</v>
       </c>
       <c r="D5">
-        <v>1.026589068635823</v>
+        <v>0.9991557265290272</v>
       </c>
       <c r="E5">
-        <v>1.025558088940975</v>
+        <v>0.9984732749322669</v>
       </c>
       <c r="F5">
-        <v>1.024914320199654</v>
+        <v>0.9727118114453782</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029167256991269</v>
+        <v>1.039159205906201</v>
       </c>
       <c r="J5">
-        <v>1.029712696765717</v>
+        <v>1.010716135970713</v>
       </c>
       <c r="K5">
-        <v>1.02904476560129</v>
+        <v>1.009039495570406</v>
       </c>
       <c r="L5">
-        <v>1.028016389629528</v>
+        <v>1.008365097406784</v>
       </c>
       <c r="M5">
-        <v>1.027374249578921</v>
+        <v>0.9829179423269377</v>
       </c>
       <c r="N5">
-        <v>1.013896836746027</v>
+        <v>1.007277937154115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025282434536608</v>
+        <v>0.9918199398763261</v>
       </c>
       <c r="D6">
-        <v>1.026637574243117</v>
+        <v>0.9993781748870997</v>
       </c>
       <c r="E6">
-        <v>1.025605443132205</v>
+        <v>0.998689590195473</v>
       </c>
       <c r="F6">
-        <v>1.024998945745689</v>
+        <v>0.973099382855648</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029174966203776</v>
+        <v>1.039213542968379</v>
       </c>
       <c r="J6">
-        <v>1.029751399061863</v>
+        <v>1.010896779515089</v>
       </c>
       <c r="K6">
-        <v>1.029084355990197</v>
+        <v>1.009221584140449</v>
       </c>
       <c r="L6">
-        <v>1.028054821460604</v>
+        <v>1.008541085805405</v>
       </c>
       <c r="M6">
-        <v>1.027449852496352</v>
+        <v>0.9832615077650831</v>
       </c>
       <c r="N6">
-        <v>1.013909899783141</v>
+        <v>1.007339860804954</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024901781205811</v>
+        <v>0.9899913516320209</v>
       </c>
       <c r="D7">
-        <v>1.026303985800989</v>
+        <v>0.9978419049690448</v>
       </c>
       <c r="E7">
-        <v>1.025279781289733</v>
+        <v>0.9971957799901371</v>
       </c>
       <c r="F7">
-        <v>1.024416938595591</v>
+        <v>0.9704210643677119</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029121801219071</v>
+        <v>1.03883700090482</v>
       </c>
       <c r="J7">
-        <v>1.029485152030261</v>
+        <v>1.009648405744406</v>
       </c>
       <c r="K7">
-        <v>1.02881202227383</v>
+        <v>1.007963436022926</v>
       </c>
       <c r="L7">
-        <v>1.027790463005771</v>
+        <v>1.007325154832246</v>
       </c>
       <c r="M7">
-        <v>1.026929853230686</v>
+        <v>0.9808869691544122</v>
       </c>
       <c r="N7">
-        <v>1.013820021739514</v>
+        <v>1.006911871922998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023308578401713</v>
+        <v>0.9821290845322552</v>
       </c>
       <c r="D8">
-        <v>1.024908256710589</v>
+        <v>0.9912471821642835</v>
       </c>
       <c r="E8">
-        <v>1.02391741596438</v>
+        <v>0.9907860190215536</v>
       </c>
       <c r="F8">
-        <v>1.021981522584479</v>
+        <v>0.9588768642222573</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028895714584516</v>
+        <v>1.037188441738397</v>
       </c>
       <c r="J8">
-        <v>1.028369204912996</v>
+        <v>1.004268697262433</v>
       </c>
       <c r="K8">
-        <v>1.027671133241189</v>
+        <v>1.002547035964868</v>
       </c>
       <c r="L8">
-        <v>1.026683129729496</v>
+        <v>1.002092263198105</v>
       </c>
       <c r="M8">
-        <v>1.024752796952905</v>
+        <v>0.9706442734728971</v>
       </c>
       <c r="N8">
-        <v>1.013442991450892</v>
+        <v>1.005066250735621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020492828727199</v>
+        <v>0.9673497407474135</v>
       </c>
       <c r="D9">
-        <v>1.022443387821461</v>
+        <v>0.9788964111049564</v>
       </c>
       <c r="E9">
-        <v>1.021512227276311</v>
+        <v>0.9787929506140464</v>
       </c>
       <c r="F9">
-        <v>1.017678950802846</v>
+        <v>0.9370232549775385</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028482704505776</v>
+        <v>1.033978544986529</v>
       </c>
       <c r="J9">
-        <v>1.026390963257555</v>
+        <v>0.9941105931249634</v>
       </c>
       <c r="K9">
-        <v>1.025650832601068</v>
+        <v>0.9923414177289813</v>
       </c>
       <c r="L9">
-        <v>1.024722801819336</v>
+        <v>0.9922397308843055</v>
       </c>
       <c r="M9">
-        <v>1.020902475815382</v>
+        <v>0.9512280044511545</v>
       </c>
       <c r="N9">
-        <v>1.01277344954745</v>
+        <v>1.001577323109754</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01860980188011</v>
+        <v>0.9567666549044788</v>
       </c>
       <c r="D10">
-        <v>1.020796309888351</v>
+        <v>0.9700883321487622</v>
       </c>
       <c r="E10">
-        <v>1.019905547881662</v>
+        <v>0.9702486335660523</v>
       </c>
       <c r="F10">
-        <v>1.014802381645719</v>
+        <v>0.9212204939617662</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02819749344782</v>
+        <v>1.031607957332604</v>
       </c>
       <c r="J10">
-        <v>1.025064013057227</v>
+        <v>0.9868071675017819</v>
       </c>
       <c r="K10">
-        <v>1.0242971236889</v>
+        <v>0.9850195014257451</v>
       </c>
       <c r="L10">
-        <v>1.023409653109198</v>
+        <v>0.9851766703017839</v>
       </c>
       <c r="M10">
-        <v>1.018325466697646</v>
+        <v>0.9371743947032529</v>
       </c>
       <c r="N10">
-        <v>1.012323557447222</v>
+        <v>0.9990670925761903</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017792980709856</v>
+        <v>0.9519824718318353</v>
       </c>
       <c r="D11">
-        <v>1.020082154698731</v>
+        <v>0.9661162705979308</v>
       </c>
       <c r="E11">
-        <v>1.019209033928194</v>
+        <v>0.9663978289532089</v>
       </c>
       <c r="F11">
-        <v>1.013554685261694</v>
+        <v>0.9140264281538242</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028071642444004</v>
+        <v>1.030520013295858</v>
       </c>
       <c r="J11">
-        <v>1.02448745964746</v>
+        <v>0.9834988666299392</v>
       </c>
       <c r="K11">
-        <v>1.023709289119862</v>
+        <v>0.9817067805078538</v>
       </c>
       <c r="L11">
-        <v>1.022839521305497</v>
+        <v>0.9819825281114428</v>
       </c>
       <c r="M11">
-        <v>1.017207041708533</v>
+        <v>0.9307747433470517</v>
       </c>
       <c r="N11">
-        <v>1.012127898644732</v>
+        <v>0.9979298170246441</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017489352641783</v>
+        <v>0.9501723113412986</v>
       </c>
       <c r="D12">
-        <v>1.019816737659617</v>
+        <v>0.9646149548849388</v>
       </c>
       <c r="E12">
-        <v>1.018950192196633</v>
+        <v>0.9649427167753979</v>
       </c>
       <c r="F12">
-        <v>1.013090901784383</v>
+        <v>0.9112954993053731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028024541359337</v>
+        <v>1.030105999782223</v>
       </c>
       <c r="J12">
-        <v>1.02427300149963</v>
+        <v>0.9822461368388591</v>
       </c>
       <c r="K12">
-        <v>1.023490686717844</v>
+        <v>0.9804529951428899</v>
       </c>
       <c r="L12">
-        <v>1.022627515745454</v>
+        <v>0.9807738561605186</v>
       </c>
       <c r="M12">
-        <v>1.016791210876963</v>
+        <v>0.9283452321144555</v>
       </c>
       <c r="N12">
-        <v>1.012055092997477</v>
+        <v>0.997499165731218</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017554492128643</v>
+        <v>0.9505621440901466</v>
       </c>
       <c r="D13">
-        <v>1.01987367727502</v>
+        <v>0.9649382028274534</v>
       </c>
       <c r="E13">
-        <v>1.019005720360669</v>
+        <v>0.9652559994125089</v>
       </c>
       <c r="F13">
-        <v>1.013190400240271</v>
+        <v>0.9118840562332143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028034660755397</v>
+        <v>1.030195266934447</v>
       </c>
       <c r="J13">
-        <v>1.024319017161608</v>
+        <v>0.9825159667377118</v>
       </c>
       <c r="K13">
-        <v>1.02353758924893</v>
+        <v>0.9807230240878663</v>
       </c>
       <c r="L13">
-        <v>1.022673002266473</v>
+        <v>0.9810341581625732</v>
       </c>
       <c r="M13">
-        <v>1.016880426220592</v>
+        <v>0.9288688333081299</v>
       </c>
       <c r="N13">
-        <v>1.012070715923997</v>
+        <v>0.9975919252142896</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017767887325551</v>
+        <v>0.9518335362598834</v>
       </c>
       <c r="D14">
-        <v>1.02006021828506</v>
+        <v>0.965992713574847</v>
       </c>
       <c r="E14">
-        <v>1.019187640569562</v>
+        <v>0.9662780667378479</v>
       </c>
       <c r="F14">
-        <v>1.013516355662337</v>
+        <v>0.9138019245443004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028067756289202</v>
+        <v>1.030485997010926</v>
       </c>
       <c r="J14">
-        <v>1.024469738623029</v>
+        <v>0.9833958150532732</v>
       </c>
       <c r="K14">
-        <v>1.023691224589292</v>
+        <v>0.9816036294151719</v>
       </c>
       <c r="L14">
-        <v>1.022822001637215</v>
+        <v>0.9818830837377162</v>
       </c>
       <c r="M14">
-        <v>1.017172677196371</v>
+        <v>0.9305750207943486</v>
       </c>
       <c r="N14">
-        <v>1.012121883150821</v>
+        <v>0.9978943909773544</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017899337267353</v>
+        <v>0.9526124061898936</v>
       </c>
       <c r="D15">
-        <v>1.02017513263052</v>
+        <v>0.9666389288306005</v>
       </c>
       <c r="E15">
-        <v>1.019299710885415</v>
+        <v>0.9669044500701317</v>
       </c>
       <c r="F15">
-        <v>1.013717142928573</v>
+        <v>0.914975610301671</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02808810054746</v>
+        <v>1.030663791669922</v>
       </c>
       <c r="J15">
-        <v>1.024562563151414</v>
+        <v>0.9839346910268507</v>
       </c>
       <c r="K15">
-        <v>1.023785850564479</v>
+        <v>0.9821430510449445</v>
       </c>
       <c r="L15">
-        <v>1.022913774060633</v>
+        <v>0.9824031309426757</v>
       </c>
       <c r="M15">
-        <v>1.017352689541593</v>
+        <v>0.9316191480913231</v>
       </c>
       <c r="N15">
-        <v>1.012153391805066</v>
+        <v>0.9980796402301111</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018663980443001</v>
+        <v>0.9570796858211665</v>
       </c>
       <c r="D16">
-        <v>1.020843685472367</v>
+        <v>0.9703484356445562</v>
       </c>
       <c r="E16">
-        <v>1.019951755824708</v>
+        <v>0.9705008466935613</v>
       </c>
       <c r="F16">
-        <v>1.014885141179314</v>
+        <v>0.9216900507680553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028205796114554</v>
+        <v>1.03167881058802</v>
       </c>
       <c r="J16">
-        <v>1.025102235070314</v>
+        <v>0.987023493555391</v>
       </c>
       <c r="K16">
-        <v>1.024336100846954</v>
+        <v>0.985236200253382</v>
       </c>
       <c r="L16">
-        <v>1.02344745836025</v>
+        <v>0.9853856438440141</v>
       </c>
       <c r="M16">
-        <v>1.018399637779724</v>
+        <v>0.9375920720546963</v>
       </c>
       <c r="N16">
-        <v>1.012336524615683</v>
+        <v>0.9991414555004691</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019143226832241</v>
+        <v>0.9598260395725138</v>
       </c>
       <c r="D17">
-        <v>1.021262791403321</v>
+        <v>0.9726315433781784</v>
       </c>
       <c r="E17">
-        <v>1.020360546706955</v>
+        <v>0.9727149592262858</v>
       </c>
       <c r="F17">
-        <v>1.015617217023849</v>
+        <v>0.9258038528482309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028278992876208</v>
+        <v>1.032298604961456</v>
       </c>
       <c r="J17">
-        <v>1.025440225523704</v>
+        <v>0.988920658681242</v>
       </c>
       <c r="K17">
-        <v>1.024680808747352</v>
+        <v>0.9871370831922632</v>
       </c>
       <c r="L17">
-        <v>1.023781812478016</v>
+        <v>0.9872189271149969</v>
       </c>
       <c r="M17">
-        <v>1.019055665460718</v>
+        <v>0.9412511597593552</v>
       </c>
       <c r="N17">
-        <v>1.012451169914746</v>
+        <v>0.9997935940309156</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019422622813346</v>
+        <v>0.9614086944032081</v>
       </c>
       <c r="D18">
-        <v>1.021507156479244</v>
+        <v>0.9739481468753324</v>
       </c>
       <c r="E18">
-        <v>1.020598909489756</v>
+        <v>0.9739919910425635</v>
       </c>
       <c r="F18">
-        <v>1.016044020631899</v>
+        <v>0.9281699086553844</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028321460369221</v>
+        <v>1.032654239754563</v>
       </c>
       <c r="J18">
-        <v>1.025637179315525</v>
+        <v>0.9900133145855602</v>
       </c>
       <c r="K18">
-        <v>1.0248817101812</v>
+        <v>0.9882322500907161</v>
       </c>
       <c r="L18">
-        <v>1.023976688211648</v>
+        <v>0.988275283797538</v>
       </c>
       <c r="M18">
-        <v>1.019438068890981</v>
+        <v>0.9433555016678556</v>
       </c>
       <c r="N18">
-        <v>1.012517958398931</v>
+        <v>1.000169167998364</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019517865978145</v>
+        <v>0.9619451535340608</v>
       </c>
       <c r="D19">
-        <v>1.021590463110778</v>
+        <v>0.9743945754074506</v>
       </c>
       <c r="E19">
-        <v>1.020680171911847</v>
+        <v>0.974425037705378</v>
       </c>
       <c r="F19">
-        <v>1.016189515494597</v>
+        <v>0.9289711639132372</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028335902222269</v>
+        <v>1.032774523414772</v>
       </c>
       <c r="J19">
-        <v>1.02570430330068</v>
+        <v>0.9903835749263226</v>
       </c>
       <c r="K19">
-        <v>1.024950185203658</v>
+        <v>0.9886034233895051</v>
       </c>
       <c r="L19">
-        <v>1.024043110906776</v>
+        <v>0.9886333262967036</v>
       </c>
       <c r="M19">
-        <v>1.019568417171184</v>
+        <v>0.9440680936801</v>
       </c>
       <c r="N19">
-        <v>1.012540717642127</v>
+        <v>1.000296432084022</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019091822784575</v>
+        <v>0.9595333917079336</v>
       </c>
       <c r="D20">
-        <v>1.021217834881644</v>
+        <v>0.9723881635438574</v>
       </c>
       <c r="E20">
-        <v>1.020316695411227</v>
+        <v>0.9724789117015574</v>
       </c>
       <c r="F20">
-        <v>1.01553869340661</v>
+        <v>0.9253659813153694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028271163037061</v>
+        <v>1.032232719713365</v>
       </c>
       <c r="J20">
-        <v>1.025403982061066</v>
+        <v>0.9887185648510113</v>
       </c>
       <c r="K20">
-        <v>1.024643841516897</v>
+        <v>0.9869345547367687</v>
       </c>
       <c r="L20">
-        <v>1.023745954713862</v>
+        <v>0.9870235867563971</v>
       </c>
       <c r="M20">
-        <v>1.018985305483119</v>
+        <v>0.9408617061873193</v>
       </c>
       <c r="N20">
-        <v>1.01243887806815</v>
+        <v>0.999724127444971</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017705053993418</v>
+        <v>0.9514600811853193</v>
       </c>
       <c r="D21">
-        <v>1.020005290723669</v>
+        <v>0.96568292065418</v>
       </c>
       <c r="E21">
-        <v>1.019134073093792</v>
+        <v>0.9659777945660313</v>
       </c>
       <c r="F21">
-        <v>1.013420379237975</v>
+        <v>0.913238833843434</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028058020270727</v>
+        <v>1.030400663437145</v>
       </c>
       <c r="J21">
-        <v>1.024425363236254</v>
+        <v>0.9831373979798065</v>
       </c>
       <c r="K21">
-        <v>1.023645989864674</v>
+        <v>0.981344972816464</v>
       </c>
       <c r="L21">
-        <v>1.022778131501784</v>
+        <v>0.9816337257437537</v>
       </c>
       <c r="M21">
-        <v>1.017086627659061</v>
+        <v>0.9300740830133689</v>
       </c>
       <c r="N21">
-        <v>1.012106819255397</v>
+        <v>0.9978055548772461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016831836955469</v>
+        <v>0.9461908702522688</v>
       </c>
       <c r="D22">
-        <v>1.019242057851682</v>
+        <v>0.9613158356102345</v>
       </c>
       <c r="E22">
-        <v>1.018389783971667</v>
+        <v>0.9617458456634207</v>
       </c>
       <c r="F22">
-        <v>1.012086574306288</v>
+        <v>0.9052705401217086</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027921957920695</v>
+        <v>1.029191081939405</v>
       </c>
       <c r="J22">
-        <v>1.023808326003724</v>
+        <v>0.9794889557392163</v>
       </c>
       <c r="K22">
-        <v>1.023017126824211</v>
+        <v>0.977694661224215</v>
       </c>
       <c r="L22">
-        <v>1.02216827157245</v>
+        <v>0.9781152219133757</v>
       </c>
       <c r="M22">
-        <v>1.015890544409488</v>
+        <v>0.9229851498480446</v>
       </c>
       <c r="N22">
-        <v>1.011897292274542</v>
+        <v>0.9965513402241798</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017294870861402</v>
+        <v>0.9490035328722711</v>
       </c>
       <c r="D23">
-        <v>1.019646744679743</v>
+        <v>0.9636460464776128</v>
       </c>
       <c r="E23">
-        <v>1.018784415879549</v>
+        <v>0.9640037351748177</v>
       </c>
       <c r="F23">
-        <v>1.012793838001866</v>
+        <v>0.9095294807891354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027994281880271</v>
+        <v>1.029838020839115</v>
       </c>
       <c r="J23">
-        <v>1.024135595390434</v>
+        <v>0.9814370016243416</v>
       </c>
       <c r="K23">
-        <v>1.023350639965662</v>
+        <v>0.9796433557129763</v>
       </c>
       <c r="L23">
-        <v>1.022491699067323</v>
+        <v>0.97999341700433</v>
       </c>
       <c r="M23">
-        <v>1.016524833994</v>
+        <v>0.9267741087529003</v>
       </c>
       <c r="N23">
-        <v>1.012008437827369</v>
+        <v>0.9972210097872833</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019115050494305</v>
+        <v>0.9596656859521218</v>
       </c>
       <c r="D24">
-        <v>1.021238149083707</v>
+        <v>0.9724981829022744</v>
       </c>
       <c r="E24">
-        <v>1.020336510165099</v>
+        <v>0.9725856158357983</v>
       </c>
       <c r="F24">
-        <v>1.015574175477667</v>
+        <v>0.9255639395618992</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028274701705503</v>
+        <v>1.032262508544917</v>
       </c>
       <c r="J24">
-        <v>1.025420359509561</v>
+        <v>0.988809925251822</v>
       </c>
       <c r="K24">
-        <v>1.024660545913884</v>
+        <v>0.9870261104712685</v>
       </c>
       <c r="L24">
-        <v>1.023762157749135</v>
+        <v>0.9871118925916458</v>
       </c>
       <c r="M24">
-        <v>1.019017098888523</v>
+        <v>0.9410377756413041</v>
       </c>
       <c r="N24">
-        <v>1.012444432478384</v>
+        <v>0.9997555312129722</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021221780912991</v>
+        <v>0.9712905703925921</v>
       </c>
       <c r="D25">
-        <v>1.023081276832552</v>
+        <v>0.9821839042607234</v>
       </c>
       <c r="E25">
-        <v>1.022134580735897</v>
+        <v>0.9819838283641448</v>
       </c>
       <c r="F25">
-        <v>1.018792656344311</v>
+        <v>0.9428726974368552</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028591214099793</v>
+        <v>1.034846974948725</v>
       </c>
       <c r="J25">
-        <v>1.026903803836299</v>
+        <v>0.9968243144336842</v>
       </c>
       <c r="K25">
-        <v>1.02617432135506</v>
+        <v>0.995065235226643</v>
       </c>
       <c r="L25">
-        <v>1.02523068508656</v>
+        <v>0.9948684125054188</v>
       </c>
       <c r="M25">
-        <v>1.021899611988771</v>
+        <v>0.9564276868015888</v>
       </c>
       <c r="N25">
-        <v>1.012947160271943</v>
+        <v>1.002509756211207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9800458106865445</v>
+        <v>1.00319339874032</v>
       </c>
       <c r="D2">
-        <v>0.9895026407410044</v>
+        <v>1.020648738545729</v>
       </c>
       <c r="E2">
-        <v>0.9890911223776893</v>
+        <v>1.009204061039648</v>
       </c>
       <c r="F2">
-        <v>0.9558094168794224</v>
+        <v>1.027037872980507</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036744185155603</v>
+        <v>1.044197982766609</v>
       </c>
       <c r="J2">
-        <v>1.002840180793054</v>
+        <v>1.025279013527834</v>
       </c>
       <c r="K2">
-        <v>1.001110183963144</v>
+        <v>1.031827707908543</v>
       </c>
       <c r="L2">
-        <v>1.000704556793738</v>
+        <v>1.020536640816666</v>
       </c>
       <c r="M2">
-        <v>0.967920770539751</v>
+        <v>1.038132952674981</v>
       </c>
       <c r="N2">
-        <v>1.00457587590804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012283311375275</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03875206250021</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033575151744058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9861391005096445</v>
+        <v>1.006659492538862</v>
       </c>
       <c r="D3">
-        <v>0.9946085563558793</v>
+        <v>1.023184174454373</v>
       </c>
       <c r="E3">
-        <v>0.9940525765414777</v>
+        <v>1.011902701375877</v>
       </c>
       <c r="F3">
-        <v>0.9647708505441299</v>
+        <v>1.029659206397066</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038035030298155</v>
+        <v>1.044660600587927</v>
       </c>
       <c r="J3">
-        <v>1.007014894616963</v>
+        <v>1.026970244830791</v>
       </c>
       <c r="K3">
-        <v>1.005310889707852</v>
+        <v>1.033528760372261</v>
       </c>
       <c r="L3">
-        <v>1.004762125660518</v>
+        <v>1.022385516896223</v>
       </c>
       <c r="M3">
-        <v>0.9758752635167286</v>
+        <v>1.039926151429568</v>
       </c>
       <c r="N3">
-        <v>1.006008627245916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012860560933966</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040171261132855</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034775277768264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9899700726504719</v>
+        <v>1.008865317911534</v>
       </c>
       <c r="D4">
-        <v>0.9978240332147369</v>
+        <v>1.024804598161028</v>
       </c>
       <c r="E4">
-        <v>0.9971784035969218</v>
+        <v>1.013625849073395</v>
       </c>
       <c r="F4">
-        <v>0.9703898836168201</v>
+        <v>1.031335942611514</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038832603061525</v>
+        <v>1.044943675453595</v>
       </c>
       <c r="J4">
-        <v>1.009633871999158</v>
+        <v>1.028044934788107</v>
       </c>
       <c r="K4">
-        <v>1.007948791378144</v>
+        <v>1.034612594341509</v>
       </c>
       <c r="L4">
-        <v>1.007311002516891</v>
+        <v>1.023562557297962</v>
       </c>
       <c r="M4">
-        <v>0.9808593205923613</v>
+        <v>1.041070327013827</v>
       </c>
       <c r="N4">
-        <v>1.006906888500674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013227254026497</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04107679923742</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03554255276802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9915552343132559</v>
+        <v>1.009787666944242</v>
       </c>
       <c r="D5">
-        <v>0.9991557265290272</v>
+        <v>1.025486311418505</v>
       </c>
       <c r="E5">
-        <v>0.9984732749322669</v>
+        <v>1.014348126341308</v>
       </c>
       <c r="F5">
-        <v>0.9727118114453782</v>
+        <v>1.032040039905884</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039159205906201</v>
+        <v>1.045060113289257</v>
       </c>
       <c r="J5">
-        <v>1.010716135970713</v>
+        <v>1.028495671412287</v>
       </c>
       <c r="K5">
-        <v>1.009039495570406</v>
+        <v>1.03506942985058</v>
       </c>
       <c r="L5">
-        <v>1.008365097406784</v>
+        <v>1.024056075060088</v>
       </c>
       <c r="M5">
-        <v>0.9829179423269377</v>
+        <v>1.041551253732669</v>
       </c>
       <c r="N5">
-        <v>1.007277937154115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013381259321324</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041457420085684</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035872788529141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9918199398763261</v>
+        <v>1.009946464403784</v>
       </c>
       <c r="D6">
-        <v>0.9993781748870997</v>
+        <v>1.025606830597085</v>
       </c>
       <c r="E6">
-        <v>0.998689590195473</v>
+        <v>1.014473050997624</v>
       </c>
       <c r="F6">
-        <v>0.973099382855648</v>
+        <v>1.032162545029313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039213542968379</v>
+        <v>1.045081018974709</v>
       </c>
       <c r="J6">
-        <v>1.010896779515089</v>
+        <v>1.028575407630876</v>
       </c>
       <c r="K6">
-        <v>1.009221584140449</v>
+        <v>1.035152165506589</v>
       </c>
       <c r="L6">
-        <v>1.008541085805405</v>
+        <v>1.024142594830349</v>
       </c>
       <c r="M6">
-        <v>0.9832615077650831</v>
+        <v>1.041636282077298</v>
       </c>
       <c r="N6">
-        <v>1.007339860804954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01340879400509</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041524714227112</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035940083099263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9899913516320209</v>
+        <v>1.008889648747301</v>
       </c>
       <c r="D7">
-        <v>0.9978419049690448</v>
+        <v>1.024830762658001</v>
       </c>
       <c r="E7">
-        <v>0.9971957799901371</v>
+        <v>1.013646235165814</v>
       </c>
       <c r="F7">
-        <v>0.9704210643677119</v>
+        <v>1.031357620229784</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03883700090482</v>
+        <v>1.044949521151321</v>
       </c>
       <c r="J7">
-        <v>1.009648405744406</v>
+        <v>1.02806264939964</v>
       </c>
       <c r="K7">
-        <v>1.007963436022926</v>
+        <v>1.034635557583694</v>
       </c>
       <c r="L7">
-        <v>1.007325154832246</v>
+        <v>1.023579758348806</v>
       </c>
       <c r="M7">
-        <v>0.9808869691544122</v>
+        <v>1.041088882704574</v>
       </c>
       <c r="N7">
-        <v>1.006911871922998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013234104461868</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041091484810634</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035579015775782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9821290845322552</v>
+        <v>1.004387807605086</v>
       </c>
       <c r="D8">
-        <v>0.9912471821642835</v>
+        <v>1.021531209623979</v>
       </c>
       <c r="E8">
-        <v>0.9907860190215536</v>
+        <v>1.010134564295772</v>
       </c>
       <c r="F8">
-        <v>0.9588768642222573</v>
+        <v>1.027943279917187</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037188441738397</v>
+        <v>1.04436315553234</v>
       </c>
       <c r="J8">
-        <v>1.004268697262433</v>
+        <v>1.025869490042554</v>
       </c>
       <c r="K8">
-        <v>1.002547035964868</v>
+        <v>1.032427216255381</v>
       </c>
       <c r="L8">
-        <v>1.002092263198105</v>
+        <v>1.021178984340278</v>
       </c>
       <c r="M8">
-        <v>0.9706442734728971</v>
+        <v>1.03875759097263</v>
       </c>
       <c r="N8">
-        <v>1.005066250735621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012485924743138</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03924642286415</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034022114103738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9673497407474135</v>
+        <v>0.9961411822978704</v>
       </c>
       <c r="D9">
-        <v>0.9788964111049564</v>
+        <v>1.015529433189426</v>
       </c>
       <c r="E9">
-        <v>0.9787929506140464</v>
+        <v>1.003746217598273</v>
       </c>
       <c r="F9">
-        <v>0.9370232549775385</v>
+        <v>1.021752497396345</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033978544986529</v>
+        <v>1.043196801538102</v>
       </c>
       <c r="J9">
-        <v>0.9941105931249634</v>
+        <v>1.021830945129964</v>
       </c>
       <c r="K9">
-        <v>0.9923414177289813</v>
+        <v>1.028375482350613</v>
       </c>
       <c r="L9">
-        <v>0.9922397308843055</v>
+        <v>1.016778806037887</v>
       </c>
       <c r="M9">
-        <v>0.9512280044511545</v>
+        <v>1.034502245445565</v>
       </c>
       <c r="N9">
-        <v>1.001577323109754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011105989845279</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035878588385145</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031154030793314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567666549044788</v>
+        <v>0.9904930557142372</v>
       </c>
       <c r="D10">
-        <v>0.9700883321487622</v>
+        <v>1.01149142814693</v>
       </c>
       <c r="E10">
-        <v>0.9702486335660523</v>
+        <v>0.9994119861311977</v>
       </c>
       <c r="F10">
-        <v>0.9212204939617662</v>
+        <v>1.017646226735781</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031607957332604</v>
+        <v>1.042354596972561</v>
       </c>
       <c r="J10">
-        <v>0.9868071675017819</v>
+        <v>1.01908901086965</v>
       </c>
       <c r="K10">
-        <v>0.9850195014257451</v>
+        <v>1.025656255406587</v>
       </c>
       <c r="L10">
-        <v>0.9851766703017839</v>
+        <v>1.013791865472349</v>
       </c>
       <c r="M10">
-        <v>0.9371743947032529</v>
+        <v>1.031704018526131</v>
       </c>
       <c r="N10">
-        <v>0.9990670925761903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010172698033141</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033715698979625</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029248281910536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9519824718318353</v>
+        <v>0.9884936766191831</v>
       </c>
       <c r="D11">
-        <v>0.9661162705979308</v>
+        <v>1.010327694062397</v>
       </c>
       <c r="E11">
-        <v>0.9663978289532089</v>
+        <v>0.9979477768762781</v>
       </c>
       <c r="F11">
-        <v>0.9140264281538242</v>
+        <v>1.016882605735302</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030520013295858</v>
+        <v>1.042145181966672</v>
       </c>
       <c r="J11">
-        <v>0.9834988666299392</v>
+        <v>1.018353092006088</v>
       </c>
       <c r="K11">
-        <v>0.9817067805078538</v>
+        <v>1.025057438410663</v>
       </c>
       <c r="L11">
-        <v>0.9819825281114428</v>
+        <v>1.012908499172095</v>
       </c>
       <c r="M11">
-        <v>0.9307747433470517</v>
+        <v>1.031493012473307</v>
       </c>
       <c r="N11">
-        <v>0.9979298170246441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009955603086118</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033987191685331</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028858003554283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9501723113412986</v>
+        <v>0.9879257610336558</v>
       </c>
       <c r="D12">
-        <v>0.9646149548849388</v>
+        <v>1.010106477183873</v>
       </c>
       <c r="E12">
-        <v>0.9649427167753979</v>
+        <v>0.9975624399083073</v>
       </c>
       <c r="F12">
-        <v>0.9112954993053731</v>
+        <v>1.016967825250271</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030105999782223</v>
+        <v>1.042129663457212</v>
       </c>
       <c r="J12">
-        <v>0.9822461368388591</v>
+        <v>1.018250063070072</v>
       </c>
       <c r="K12">
-        <v>0.9804529951428899</v>
+        <v>1.02504258107353</v>
       </c>
       <c r="L12">
-        <v>0.9807738561605186</v>
+        <v>1.012736489198089</v>
       </c>
       <c r="M12">
-        <v>0.9283452321144555</v>
+        <v>1.031777011838374</v>
       </c>
       <c r="N12">
-        <v>0.997499165731218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009947436092959</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034539662950091</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028847498774131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9505621440901466</v>
+        <v>0.9884366557078738</v>
       </c>
       <c r="D13">
-        <v>0.9649382028274534</v>
+        <v>1.010617432393246</v>
       </c>
       <c r="E13">
-        <v>0.9652559994125089</v>
+        <v>0.9979928991512762</v>
       </c>
       <c r="F13">
-        <v>0.9118840562332143</v>
+        <v>1.017739125057662</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030195266934447</v>
+        <v>1.042272252415588</v>
       </c>
       <c r="J13">
-        <v>0.9825159667377118</v>
+        <v>1.018644145395494</v>
       </c>
       <c r="K13">
-        <v>0.9807230240878663</v>
+        <v>1.025500646805159</v>
       </c>
       <c r="L13">
-        <v>0.9810341581625732</v>
+        <v>1.013114489793055</v>
       </c>
       <c r="M13">
-        <v>0.9288688333081299</v>
+        <v>1.032491263473737</v>
       </c>
       <c r="N13">
-        <v>0.9975919252142896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010106311727884</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035382089262416</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029168858539235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9518335362598834</v>
+        <v>0.9892835648322185</v>
       </c>
       <c r="D14">
-        <v>0.965992713574847</v>
+        <v>1.011307620318125</v>
       </c>
       <c r="E14">
-        <v>0.9662780667378479</v>
+        <v>0.9986643305695473</v>
       </c>
       <c r="F14">
-        <v>0.9138019245443004</v>
+        <v>1.018589203235908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030485997010926</v>
+        <v>1.042443591189933</v>
       </c>
       <c r="J14">
-        <v>0.9833958150532732</v>
+        <v>1.019145359056511</v>
       </c>
       <c r="K14">
-        <v>0.9816036294151719</v>
+        <v>1.026036089676081</v>
       </c>
       <c r="L14">
-        <v>0.9818830837377162</v>
+        <v>1.013628481687633</v>
       </c>
       <c r="M14">
-        <v>0.9305750207943486</v>
+        <v>1.033185388177823</v>
       </c>
       <c r="N14">
-        <v>0.9978943909773544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010293361399804</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036104611712017</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029548875683824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9526124061898936</v>
+        <v>0.9897302371900646</v>
       </c>
       <c r="D15">
-        <v>0.9666389288306005</v>
+        <v>1.011645967216807</v>
       </c>
       <c r="E15">
-        <v>0.9669044500701317</v>
+        <v>0.9990109818437785</v>
       </c>
       <c r="F15">
-        <v>0.914975610301671</v>
+        <v>1.018963750156281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030663791669922</v>
+        <v>1.042521988662023</v>
       </c>
       <c r="J15">
-        <v>0.9839346910268507</v>
+        <v>1.019382863397184</v>
       </c>
       <c r="K15">
-        <v>0.9821430510449445</v>
+        <v>1.026280822994948</v>
       </c>
       <c r="L15">
-        <v>0.9824031309426757</v>
+        <v>1.0138795422482</v>
       </c>
       <c r="M15">
-        <v>0.9316191480913231</v>
+        <v>1.033466692978883</v>
       </c>
       <c r="N15">
-        <v>0.9980796402301111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01037799159251</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036364586415361</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029727828474161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9570796858211665</v>
+        <v>0.9920186853486447</v>
       </c>
       <c r="D16">
-        <v>0.9703484356445562</v>
+        <v>1.013259981137382</v>
       </c>
       <c r="E16">
-        <v>0.9705008466935613</v>
+        <v>1.000753824598751</v>
       </c>
       <c r="F16">
-        <v>0.9216900507680553</v>
+        <v>1.02058537481393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03167881058802</v>
+        <v>1.0428646789325</v>
       </c>
       <c r="J16">
-        <v>0.987023493555391</v>
+        <v>1.020474772184205</v>
       </c>
       <c r="K16">
-        <v>0.985236200253382</v>
+        <v>1.027357892797889</v>
       </c>
       <c r="L16">
-        <v>0.9853856438440141</v>
+        <v>1.015072844068035</v>
       </c>
       <c r="M16">
-        <v>0.9375920720546963</v>
+        <v>1.034557025150891</v>
       </c>
       <c r="N16">
-        <v>0.9991414555004691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010745040602428</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037187563795397</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03049255579643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9598260395725138</v>
+        <v>0.9933336616482517</v>
       </c>
       <c r="D17">
-        <v>0.9726315433781784</v>
+        <v>1.014139507768599</v>
       </c>
       <c r="E17">
-        <v>0.9727149592262858</v>
+        <v>1.001743011475461</v>
       </c>
       <c r="F17">
-        <v>0.9258038528482309</v>
+        <v>1.021381002041355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032298604961456</v>
+        <v>1.043035481816742</v>
       </c>
       <c r="J17">
-        <v>0.988920658681242</v>
+        <v>1.021050449963528</v>
       </c>
       <c r="K17">
-        <v>0.9871370831922632</v>
+        <v>1.027904080430516</v>
       </c>
       <c r="L17">
-        <v>0.9872189271149969</v>
+        <v>1.015720548252381</v>
       </c>
       <c r="M17">
-        <v>0.9412511597593552</v>
+        <v>1.035024250332125</v>
       </c>
       <c r="N17">
-        <v>0.9997935940309156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010928738842978</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037427479647823</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030881343289932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9614086944032081</v>
+        <v>0.9939196107519528</v>
       </c>
       <c r="D18">
-        <v>0.9739481468753324</v>
+        <v>1.014436218016907</v>
       </c>
       <c r="E18">
-        <v>0.9739919910425635</v>
+        <v>1.002159348176953</v>
       </c>
       <c r="F18">
-        <v>0.9281699086553844</v>
+        <v>1.021482422864161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032654239754563</v>
+        <v>1.04306992805651</v>
       </c>
       <c r="J18">
-        <v>0.9900133145855602</v>
+        <v>1.021214312391875</v>
       </c>
       <c r="K18">
-        <v>0.9882322500907161</v>
+        <v>1.028010330876821</v>
       </c>
       <c r="L18">
-        <v>0.988275283797538</v>
+        <v>1.015940912267681</v>
       </c>
       <c r="M18">
-        <v>0.9433555016678556</v>
+        <v>1.03494036588886</v>
       </c>
       <c r="N18">
-        <v>1.000169167998364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010963554508746</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037122716409494</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030944746649103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9619451535340608</v>
+        <v>0.9938641574617814</v>
       </c>
       <c r="D19">
-        <v>0.9743945754074506</v>
+        <v>1.014227331998058</v>
       </c>
       <c r="E19">
-        <v>0.974425037705378</v>
+        <v>1.002073539091729</v>
       </c>
       <c r="F19">
-        <v>0.9289711639132372</v>
+        <v>1.020963807579831</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032774523414772</v>
+        <v>1.042990789418642</v>
       </c>
       <c r="J19">
-        <v>0.9903835749263226</v>
+        <v>1.021024994693073</v>
       </c>
       <c r="K19">
-        <v>0.9886034233895051</v>
+        <v>1.027741669144142</v>
       </c>
       <c r="L19">
-        <v>0.9886333262967036</v>
+        <v>1.015792224462396</v>
       </c>
       <c r="M19">
-        <v>0.9440680936801</v>
+        <v>1.034367573177273</v>
       </c>
       <c r="N19">
-        <v>1.000296432084022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010873656612288</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036343050566408</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030761234320963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9595333917079336</v>
+        <v>0.9919894414497245</v>
       </c>
       <c r="D20">
-        <v>0.9723881635438574</v>
+        <v>1.012580733545606</v>
       </c>
       <c r="E20">
-        <v>0.9724789117015574</v>
+        <v>1.000562209044396</v>
       </c>
       <c r="F20">
-        <v>0.9253659813153694</v>
+        <v>1.01874325701774</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032232719713365</v>
+        <v>1.042589102189398</v>
       </c>
       <c r="J20">
-        <v>0.9887185648510113</v>
+        <v>1.019832687758698</v>
       </c>
       <c r="K20">
-        <v>0.9869345547367687</v>
+        <v>1.026405915245706</v>
       </c>
       <c r="L20">
-        <v>0.9870235867563971</v>
+        <v>1.014595179882523</v>
       </c>
       <c r="M20">
-        <v>0.9408617061873193</v>
+        <v>1.032464345497208</v>
       </c>
       <c r="N20">
-        <v>0.999724127444971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010428432493685</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034306811157182</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029820747014684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514600811853193</v>
+        <v>0.9876592156476425</v>
       </c>
       <c r="D21">
-        <v>0.96568292065418</v>
+        <v>1.00944612008399</v>
       </c>
       <c r="E21">
-        <v>0.9659777945660313</v>
+        <v>0.9972394807118385</v>
       </c>
       <c r="F21">
-        <v>0.913238833843434</v>
+        <v>1.015478390539852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030400663437145</v>
+        <v>1.041904652026541</v>
       </c>
       <c r="J21">
-        <v>0.9831373979798065</v>
+        <v>1.017682117319247</v>
       </c>
       <c r="K21">
-        <v>0.981344972816464</v>
+        <v>1.024250715811001</v>
       </c>
       <c r="L21">
-        <v>0.9816337257437537</v>
+        <v>1.012273341390868</v>
       </c>
       <c r="M21">
-        <v>0.9300740830133689</v>
+        <v>1.030172336151226</v>
       </c>
       <c r="N21">
-        <v>0.9978055548772461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009690065084388</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032451725013335</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02830017432236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9461908702522688</v>
+        <v>0.9849026679711249</v>
       </c>
       <c r="D22">
-        <v>0.9613158356102345</v>
+        <v>1.00746683393038</v>
       </c>
       <c r="E22">
-        <v>0.9617458456634207</v>
+        <v>0.9951339687594045</v>
       </c>
       <c r="F22">
-        <v>0.9052705401217086</v>
+        <v>1.013450458615898</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029191081939405</v>
+        <v>1.041461031242531</v>
       </c>
       <c r="J22">
-        <v>0.9794889557392163</v>
+        <v>1.016320103532177</v>
       </c>
       <c r="K22">
-        <v>0.977694661224215</v>
+        <v>1.022891808568631</v>
       </c>
       <c r="L22">
-        <v>0.9781152219133757</v>
+        <v>1.010802442962069</v>
       </c>
       <c r="M22">
-        <v>0.9229851498480446</v>
+        <v>1.028760086898388</v>
       </c>
       <c r="N22">
-        <v>0.9965513402241798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009223209130335</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031334010859023</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027325727277151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9490035328722711</v>
+        <v>0.9863566769389408</v>
       </c>
       <c r="D23">
-        <v>0.9636460464776128</v>
+        <v>1.008502522370605</v>
       </c>
       <c r="E23">
-        <v>0.9640037351748177</v>
+        <v>0.9962422462989862</v>
       </c>
       <c r="F23">
-        <v>0.9095294807891354</v>
+        <v>1.014516193390094</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029838020839115</v>
+        <v>1.041693671421277</v>
       </c>
       <c r="J23">
-        <v>0.9814370016243416</v>
+        <v>1.017032967961328</v>
       </c>
       <c r="K23">
-        <v>0.9796433557129763</v>
+        <v>1.023598449599172</v>
       </c>
       <c r="L23">
-        <v>0.97999341700433</v>
+        <v>1.011573967342072</v>
       </c>
       <c r="M23">
-        <v>0.9267741087529003</v>
+        <v>1.029499181710604</v>
       </c>
       <c r="N23">
-        <v>0.9972210097872833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009466674606645</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031918962167299</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027815638465291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9596656859521218</v>
+        <v>0.9919949764285237</v>
       </c>
       <c r="D24">
-        <v>0.9724981829022744</v>
+        <v>1.012548562259658</v>
       </c>
       <c r="E24">
-        <v>0.9725856158357983</v>
+        <v>1.000558362759505</v>
       </c>
       <c r="F24">
-        <v>0.9255639395618992</v>
+        <v>1.018675651035999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032262508544917</v>
+        <v>1.042576881198968</v>
       </c>
       <c r="J24">
-        <v>0.988809925251822</v>
+        <v>1.019804693889433</v>
       </c>
       <c r="K24">
-        <v>0.9870261104712685</v>
+        <v>1.026358837352621</v>
       </c>
       <c r="L24">
-        <v>0.9871118925916458</v>
+        <v>1.014575680012287</v>
       </c>
       <c r="M24">
-        <v>0.9410377756413041</v>
+        <v>1.032382551205156</v>
       </c>
       <c r="N24">
-        <v>0.9997555312129722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010414629252269</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034200979678431</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029759830777618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9712905703925921</v>
+        <v>0.9983295807951894</v>
       </c>
       <c r="D25">
-        <v>0.9821839042607234</v>
+        <v>1.017128304355692</v>
       </c>
       <c r="E25">
-        <v>0.9819838283641448</v>
+        <v>1.005438200610631</v>
       </c>
       <c r="F25">
-        <v>0.9428726974368552</v>
+        <v>1.02339200970952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034846974948725</v>
+        <v>1.043520631815163</v>
       </c>
       <c r="J25">
-        <v>0.9968243144336842</v>
+        <v>1.022913292277754</v>
       </c>
       <c r="K25">
-        <v>0.995065235226643</v>
+        <v>1.029466419405934</v>
       </c>
       <c r="L25">
-        <v>0.9948684125054188</v>
+        <v>1.017952678048907</v>
       </c>
       <c r="M25">
-        <v>0.9564276868015888</v>
+        <v>1.03563773182935</v>
       </c>
       <c r="N25">
-        <v>1.002509756211207</v>
+        <v>1.011477312326979</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036777254967307</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031954198156735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00319339874032</v>
+        <v>1.003377546178668</v>
       </c>
       <c r="D2">
-        <v>1.020648738545729</v>
+        <v>1.020490472366343</v>
       </c>
       <c r="E2">
-        <v>1.009204061039648</v>
+        <v>1.009374801068561</v>
       </c>
       <c r="F2">
-        <v>1.027037872980507</v>
+        <v>1.026978150071274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044197982766609</v>
+        <v>1.044271758387324</v>
       </c>
       <c r="J2">
-        <v>1.025279013527834</v>
+        <v>1.025457702598056</v>
       </c>
       <c r="K2">
-        <v>1.031827707908543</v>
+        <v>1.031671536498373</v>
       </c>
       <c r="L2">
-        <v>1.020536640816666</v>
+        <v>1.020705056962815</v>
       </c>
       <c r="M2">
-        <v>1.038132952674981</v>
+        <v>1.038074007877805</v>
       </c>
       <c r="N2">
-        <v>1.012283311375275</v>
+        <v>1.01392514313779</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03875206250021</v>
+        <v>1.038705411530371</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033575151744058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033473555643022</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020409543923984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006659492538862</v>
+        <v>1.006694080559325</v>
       </c>
       <c r="D3">
-        <v>1.023184174454373</v>
+        <v>1.022812717167517</v>
       </c>
       <c r="E3">
-        <v>1.011902701375877</v>
+        <v>1.011942519741412</v>
       </c>
       <c r="F3">
-        <v>1.029659206397066</v>
+        <v>1.02944649491754</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044660600587927</v>
+        <v>1.044685019015539</v>
       </c>
       <c r="J3">
-        <v>1.026970244830791</v>
+        <v>1.027003906865204</v>
       </c>
       <c r="K3">
-        <v>1.033528760372261</v>
+        <v>1.033161794180368</v>
       </c>
       <c r="L3">
-        <v>1.022385516896223</v>
+        <v>1.022424840625507</v>
       </c>
       <c r="M3">
-        <v>1.039926151429568</v>
+        <v>1.039715971299019</v>
       </c>
       <c r="N3">
-        <v>1.012860560933966</v>
+        <v>1.014343487768641</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040171261132855</v>
+        <v>1.040004917556563</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034775277768264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034524350759759</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02072093677733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008865317911534</v>
+        <v>1.008805909210716</v>
       </c>
       <c r="D4">
-        <v>1.024804598161028</v>
+        <v>1.024298120081903</v>
       </c>
       <c r="E4">
-        <v>1.013625849073395</v>
+        <v>1.013583272499585</v>
       </c>
       <c r="F4">
-        <v>1.031335942611514</v>
+        <v>1.031026554383023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044943675453595</v>
+        <v>1.044936976470376</v>
       </c>
       <c r="J4">
-        <v>1.028044934788107</v>
+        <v>1.027987010086103</v>
       </c>
       <c r="K4">
-        <v>1.034612594341509</v>
+        <v>1.034111872906569</v>
       </c>
       <c r="L4">
-        <v>1.023562557297962</v>
+        <v>1.023520477662093</v>
       </c>
       <c r="M4">
-        <v>1.041070327013827</v>
+        <v>1.040764399851859</v>
       </c>
       <c r="N4">
-        <v>1.013227254026497</v>
+        <v>1.014609447670566</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04107679923742</v>
+        <v>1.040834678553499</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03554255276802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035197128806039</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020917182310925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009787666944242</v>
+        <v>1.009689150240606</v>
       </c>
       <c r="D5">
-        <v>1.025486311418505</v>
+        <v>1.024923495261481</v>
       </c>
       <c r="E5">
-        <v>1.014348126341308</v>
+        <v>1.014271239976855</v>
       </c>
       <c r="F5">
-        <v>1.032040039905884</v>
+        <v>1.031690349207495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045060113289257</v>
+        <v>1.045040440404551</v>
       </c>
       <c r="J5">
-        <v>1.028495671412287</v>
+        <v>1.028399542818961</v>
       </c>
       <c r="K5">
-        <v>1.03506942985058</v>
+        <v>1.034512841374169</v>
       </c>
       <c r="L5">
-        <v>1.024056075060088</v>
+        <v>1.023980062140079</v>
       </c>
       <c r="M5">
-        <v>1.041551253732669</v>
+        <v>1.041205371367184</v>
       </c>
       <c r="N5">
-        <v>1.013381259321324</v>
+        <v>1.014721226919584</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041457420085684</v>
+        <v>1.041183677695297</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035872788529141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035488571809191</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021000018114816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009946464403784</v>
+        <v>1.00984113586981</v>
       </c>
       <c r="D6">
-        <v>1.025606830597085</v>
+        <v>1.025034283974386</v>
       </c>
       <c r="E6">
-        <v>1.014473050997624</v>
+        <v>1.014390180498118</v>
       </c>
       <c r="F6">
-        <v>1.032162545029313</v>
+        <v>1.031805879555094</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045081018974709</v>
+        <v>1.04505907747374</v>
       </c>
       <c r="J6">
-        <v>1.028575407630876</v>
+        <v>1.028472619326284</v>
       </c>
       <c r="K6">
-        <v>1.035152165506589</v>
+        <v>1.034585925351498</v>
       </c>
       <c r="L6">
-        <v>1.024142594830349</v>
+        <v>1.024060661434596</v>
       </c>
       <c r="M6">
-        <v>1.041636282077298</v>
+        <v>1.041283483194247</v>
       </c>
       <c r="N6">
-        <v>1.01340879400509</v>
+        <v>1.014741251529489</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041524714227112</v>
+        <v>1.041245497907964</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035940083099263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035549910503995</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021015770366023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008889648747301</v>
+        <v>1.008835552029612</v>
       </c>
       <c r="D7">
-        <v>1.024830762658001</v>
+        <v>1.024327706753519</v>
       </c>
       <c r="E7">
-        <v>1.013646235165814</v>
+        <v>1.013608416523201</v>
       </c>
       <c r="F7">
-        <v>1.031357620229784</v>
+        <v>1.031051183326634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044949521151321</v>
+        <v>1.044944734494009</v>
       </c>
       <c r="J7">
-        <v>1.02806264939964</v>
+        <v>1.02800990339918</v>
       </c>
       <c r="K7">
-        <v>1.034635557583694</v>
+        <v>1.034138217134068</v>
       </c>
       <c r="L7">
-        <v>1.023579758348806</v>
+        <v>1.023542380938982</v>
       </c>
       <c r="M7">
-        <v>1.041088882704574</v>
+        <v>1.040785872519957</v>
       </c>
       <c r="N7">
-        <v>1.013234104461868</v>
+        <v>1.014642071003895</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041091484810634</v>
+        <v>1.040851672722511</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035579015775782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035237981155898</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020925079493164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004387807605086</v>
+        <v>1.004540164082443</v>
       </c>
       <c r="D8">
-        <v>1.021531209623979</v>
+        <v>1.021314657734586</v>
       </c>
       <c r="E8">
-        <v>1.010134564295772</v>
+        <v>1.010277896022962</v>
       </c>
       <c r="F8">
-        <v>1.027943279917187</v>
+        <v>1.027843282930802</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04436315553234</v>
+        <v>1.044427025397074</v>
       </c>
       <c r="J8">
-        <v>1.025869490042554</v>
+        <v>1.026017480592143</v>
       </c>
       <c r="K8">
-        <v>1.032427216255381</v>
+        <v>1.032213445821162</v>
       </c>
       <c r="L8">
-        <v>1.021178984340278</v>
+        <v>1.021320423448999</v>
       </c>
       <c r="M8">
-        <v>1.03875759097263</v>
+        <v>1.038658858272597</v>
       </c>
       <c r="N8">
-        <v>1.012485924743138</v>
+        <v>1.014155866906751</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03924642286415</v>
+        <v>1.039168282411445</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034022114103738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033882054694885</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020527442279515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9961411822978704</v>
+        <v>0.9966600601953792</v>
       </c>
       <c r="D9">
-        <v>1.015529433189426</v>
+        <v>1.015826636721409</v>
       </c>
       <c r="E9">
-        <v>1.003746217598273</v>
+        <v>1.004209685160868</v>
       </c>
       <c r="F9">
-        <v>1.021752497396345</v>
+        <v>1.022022805261587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043196801538102</v>
+        <v>1.043381118932693</v>
       </c>
       <c r="J9">
-        <v>1.021830945129964</v>
+        <v>1.022331314148145</v>
       </c>
       <c r="K9">
-        <v>1.028375482350613</v>
+        <v>1.028668052401771</v>
       </c>
       <c r="L9">
-        <v>1.016778806037887</v>
+        <v>1.017234830401835</v>
       </c>
       <c r="M9">
-        <v>1.034502245445565</v>
+        <v>1.034768404244396</v>
       </c>
       <c r="N9">
-        <v>1.011105989845279</v>
+        <v>1.013167195819152</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035878588385145</v>
+        <v>1.036089236559721</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031154030793314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031371722406496</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019772208940671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9904930557142372</v>
+        <v>0.991294671545048</v>
       </c>
       <c r="D10">
-        <v>1.01149142814693</v>
+        <v>1.012160873429277</v>
       </c>
       <c r="E10">
-        <v>0.9994119861311977</v>
+        <v>1.000121921417573</v>
       </c>
       <c r="F10">
-        <v>1.017646226735781</v>
+        <v>1.018188206587954</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042354596972561</v>
+        <v>1.042631815587244</v>
       </c>
       <c r="J10">
-        <v>1.01908901086965</v>
+        <v>1.0198579864486</v>
       </c>
       <c r="K10">
-        <v>1.025656255406587</v>
+        <v>1.026313976921289</v>
       </c>
       <c r="L10">
-        <v>1.013791865472349</v>
+        <v>1.014488974884439</v>
       </c>
       <c r="M10">
-        <v>1.031704018526131</v>
+        <v>1.032236653202124</v>
       </c>
       <c r="N10">
-        <v>1.010172698033141</v>
+        <v>1.012617090731767</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033715698979625</v>
+        <v>1.034137220932567</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029248281910536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029725844657134</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019269385201165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9884936766191831</v>
+        <v>0.9893991216921797</v>
       </c>
       <c r="D11">
-        <v>1.010327694062397</v>
+        <v>1.011113485133853</v>
       </c>
       <c r="E11">
-        <v>0.9979477768762781</v>
+        <v>0.998747193713281</v>
       </c>
       <c r="F11">
-        <v>1.016882605735302</v>
+        <v>1.017510943424871</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042145181966672</v>
+        <v>1.042455669745698</v>
       </c>
       <c r="J11">
-        <v>1.018353092006088</v>
+        <v>1.019219657538033</v>
       </c>
       <c r="K11">
-        <v>1.025057438410663</v>
+        <v>1.025828817204017</v>
       </c>
       <c r="L11">
-        <v>1.012908499172095</v>
+        <v>1.013692774862025</v>
       </c>
       <c r="M11">
-        <v>1.031493012473307</v>
+        <v>1.032110015723609</v>
       </c>
       <c r="N11">
-        <v>1.009955603086118</v>
+        <v>1.012696141153748</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033987191685331</v>
+        <v>1.03447523401095</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028858003554283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029419134685006</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019225547563503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9879257610336558</v>
+        <v>0.9888464065749563</v>
       </c>
       <c r="D12">
-        <v>1.010106477183873</v>
+        <v>1.010906019750667</v>
       </c>
       <c r="E12">
-        <v>0.9975624399083073</v>
+        <v>0.9983737792580127</v>
       </c>
       <c r="F12">
-        <v>1.016967825250271</v>
+        <v>1.017606078187226</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042129663457212</v>
+        <v>1.042443773082665</v>
       </c>
       <c r="J12">
-        <v>1.018250063070072</v>
+        <v>1.019130424289976</v>
       </c>
       <c r="K12">
-        <v>1.02504258107353</v>
+        <v>1.025827218451778</v>
       </c>
       <c r="L12">
-        <v>1.012736489198089</v>
+        <v>1.013532201550108</v>
       </c>
       <c r="M12">
-        <v>1.031777011838374</v>
+        <v>1.032403572031463</v>
       </c>
       <c r="N12">
-        <v>1.009947436092959</v>
+        <v>1.01279190331849</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034539662950091</v>
+        <v>1.035035095519584</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028847498774131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029418004323631</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019269118150427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9884366557078738</v>
+        <v>0.9892948342223209</v>
       </c>
       <c r="D13">
-        <v>1.010617432393246</v>
+        <v>1.011344333923376</v>
       </c>
       <c r="E13">
-        <v>0.9979928991512762</v>
+        <v>0.9987480626284027</v>
       </c>
       <c r="F13">
-        <v>1.017739125057662</v>
+        <v>1.01832243821917</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042272252415588</v>
+        <v>1.042563776204712</v>
       </c>
       <c r="J13">
-        <v>1.018644145395494</v>
+        <v>1.019464962564919</v>
       </c>
       <c r="K13">
-        <v>1.025500646805159</v>
+        <v>1.02621405927134</v>
       </c>
       <c r="L13">
-        <v>1.013114489793055</v>
+        <v>1.013855172472581</v>
       </c>
       <c r="M13">
-        <v>1.032491263473737</v>
+        <v>1.03306394636556</v>
       </c>
       <c r="N13">
-        <v>1.010106311727884</v>
+        <v>1.012876120645065</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035382089262416</v>
+        <v>1.035834805505496</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029168858539235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029688756982383</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019388894656641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9892835648322185</v>
+        <v>0.9900637163720752</v>
       </c>
       <c r="D14">
-        <v>1.011307620318125</v>
+        <v>1.011945368263776</v>
       </c>
       <c r="E14">
-        <v>0.9986643305695473</v>
+        <v>0.9993501900735976</v>
       </c>
       <c r="F14">
-        <v>1.018589203235908</v>
+        <v>1.019105390983081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042443591189933</v>
+        <v>1.042707841744086</v>
       </c>
       <c r="J14">
-        <v>1.019145359056511</v>
+        <v>1.019892033397348</v>
       </c>
       <c r="K14">
-        <v>1.026036089676081</v>
+        <v>1.026662152613542</v>
       </c>
       <c r="L14">
-        <v>1.013628481687633</v>
+        <v>1.014301356234995</v>
       </c>
       <c r="M14">
-        <v>1.033185388177823</v>
+        <v>1.033692291585584</v>
       </c>
       <c r="N14">
-        <v>1.010293361399804</v>
+        <v>1.012931259252864</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036104611712017</v>
+        <v>1.036505273730761</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029548875683824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03000714538403</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01950777181441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9897302371900646</v>
+        <v>0.9904747297325981</v>
       </c>
       <c r="D15">
-        <v>1.011645967216807</v>
+        <v>1.012242978223444</v>
       </c>
       <c r="E15">
-        <v>0.9990109818437785</v>
+        <v>0.9996654101575876</v>
       </c>
       <c r="F15">
-        <v>1.018963750156281</v>
+        <v>1.019449381429377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042521988662023</v>
+        <v>1.042774049364651</v>
       </c>
       <c r="J15">
-        <v>1.019382863397184</v>
+        <v>1.020095687418354</v>
       </c>
       <c r="K15">
-        <v>1.026280822994948</v>
+        <v>1.026866979107153</v>
       </c>
       <c r="L15">
-        <v>1.0138795422482</v>
+        <v>1.014521676398229</v>
       </c>
       <c r="M15">
-        <v>1.033466692978883</v>
+        <v>1.033943657084809</v>
       </c>
       <c r="N15">
-        <v>1.01037799159251</v>
+        <v>1.012947086114538</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036364586415361</v>
+        <v>1.036741574126014</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029727828474161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030158448998645</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019556749281167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9920186853486447</v>
+        <v>0.9926117093630703</v>
       </c>
       <c r="D16">
-        <v>1.013259981137382</v>
+        <v>1.013680142891272</v>
       </c>
       <c r="E16">
-        <v>1.000753824598751</v>
+        <v>1.001276018052527</v>
       </c>
       <c r="F16">
-        <v>1.02058537481393</v>
+        <v>1.020939441887061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.0428646789325</v>
+        <v>1.043066480051387</v>
       </c>
       <c r="J16">
-        <v>1.020474772184205</v>
+        <v>1.021043824614118</v>
       </c>
       <c r="K16">
-        <v>1.027357892797889</v>
+        <v>1.027770748740669</v>
       </c>
       <c r="L16">
-        <v>1.015072844068035</v>
+        <v>1.015585661630928</v>
       </c>
       <c r="M16">
-        <v>1.034557025150891</v>
+        <v>1.034905048776725</v>
       </c>
       <c r="N16">
-        <v>1.010745040602428</v>
+        <v>1.012993295502999</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037187563795397</v>
+        <v>1.037462646089132</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03049255579643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030800940797601</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019742695423723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9933336616482517</v>
+        <v>0.9938586415243195</v>
       </c>
       <c r="D17">
-        <v>1.014139507768599</v>
+        <v>1.014476082139419</v>
       </c>
       <c r="E17">
-        <v>1.001743011475461</v>
+        <v>1.002206405030688</v>
       </c>
       <c r="F17">
-        <v>1.021381002041355</v>
+        <v>1.021673718343065</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043035481816742</v>
+        <v>1.043215460049948</v>
       </c>
       <c r="J17">
-        <v>1.021050449963528</v>
+        <v>1.021554886097819</v>
       </c>
       <c r="K17">
-        <v>1.027904080430516</v>
+        <v>1.028234966298619</v>
       </c>
       <c r="L17">
-        <v>1.015720548252381</v>
+        <v>1.016175858258145</v>
       </c>
       <c r="M17">
-        <v>1.035024250332125</v>
+        <v>1.035312109013181</v>
       </c>
       <c r="N17">
-        <v>1.010928738842978</v>
+        <v>1.013028769555665</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037427479647823</v>
+        <v>1.037655029561052</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030881343289932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031132017510526</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019824156166156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9939196107519528</v>
+        <v>0.9944342206141247</v>
       </c>
       <c r="D18">
-        <v>1.014436218016907</v>
+        <v>1.014757268543952</v>
       </c>
       <c r="E18">
-        <v>1.002159348176953</v>
+        <v>1.002614776480924</v>
       </c>
       <c r="F18">
-        <v>1.021482422864161</v>
+        <v>1.021764543035779</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04306992805651</v>
+        <v>1.043247742038747</v>
       </c>
       <c r="J18">
-        <v>1.021214312391875</v>
+        <v>1.021709158033432</v>
       </c>
       <c r="K18">
-        <v>1.028010330876821</v>
+        <v>1.028326043113327</v>
       </c>
       <c r="L18">
-        <v>1.015940912267681</v>
+        <v>1.016388527602827</v>
       </c>
       <c r="M18">
-        <v>1.03494036588886</v>
+        <v>1.035217877656925</v>
       </c>
       <c r="N18">
-        <v>1.010963554508746</v>
+        <v>1.013015037975969</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037122716409494</v>
+        <v>1.037342133164422</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030944746649103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031183559675899</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019811739552943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9938641574617814</v>
+        <v>0.9944129414909355</v>
       </c>
       <c r="D19">
-        <v>1.014227331998058</v>
+        <v>1.014588486316218</v>
       </c>
       <c r="E19">
-        <v>1.002073539091729</v>
+        <v>1.002560151336183</v>
       </c>
       <c r="F19">
-        <v>1.020963807579831</v>
+        <v>1.021276395044722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042990789418642</v>
+        <v>1.04318144993177</v>
       </c>
       <c r="J19">
-        <v>1.021024994693073</v>
+        <v>1.021552823182334</v>
       </c>
       <c r="K19">
-        <v>1.027741669144142</v>
+        <v>1.028096847586461</v>
       </c>
       <c r="L19">
-        <v>1.015792224462396</v>
+        <v>1.016270532059818</v>
       </c>
       <c r="M19">
-        <v>1.034367573177273</v>
+        <v>1.03467507536779</v>
       </c>
       <c r="N19">
-        <v>1.010873656612288</v>
+        <v>1.012943819364692</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036343050566408</v>
+        <v>1.036586259523759</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030761234320963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031028577208191</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019722038380771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9919894414497245</v>
+        <v>0.992695855036383</v>
       </c>
       <c r="D20">
-        <v>1.012580733545606</v>
+        <v>1.013136192409502</v>
       </c>
       <c r="E20">
-        <v>1.000562209044396</v>
+        <v>1.001188653340886</v>
       </c>
       <c r="F20">
-        <v>1.01874325701774</v>
+        <v>1.019200471925107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042589102189398</v>
+        <v>1.042834368002521</v>
       </c>
       <c r="J20">
-        <v>1.019832687758698</v>
+        <v>1.020511272107567</v>
       </c>
       <c r="K20">
-        <v>1.026405915245706</v>
+        <v>1.026951924628639</v>
       </c>
       <c r="L20">
-        <v>1.014595179882523</v>
+        <v>1.015210633864576</v>
       </c>
       <c r="M20">
-        <v>1.032464345497208</v>
+        <v>1.032913902086691</v>
       </c>
       <c r="N20">
-        <v>1.010428432493685</v>
+        <v>1.012696977161107</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034306811157182</v>
+        <v>1.034662590237753</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029820747014684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030223411583647</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019409876171453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9876592156476425</v>
+        <v>0.9886840712795919</v>
       </c>
       <c r="D21">
-        <v>1.00944612008399</v>
+        <v>1.010367411645478</v>
       </c>
       <c r="E21">
-        <v>0.9972394807118385</v>
+        <v>0.9981460403881528</v>
       </c>
       <c r="F21">
-        <v>1.015478390539852</v>
+        <v>1.016210009238434</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I21">
-        <v>1.041904652026541</v>
+        <v>1.042258015249746</v>
       </c>
       <c r="J21">
-        <v>1.017682117319247</v>
+        <v>1.018662645736018</v>
       </c>
       <c r="K21">
-        <v>1.024250715811001</v>
+        <v>1.025154996685452</v>
       </c>
       <c r="L21">
-        <v>1.012273341390868</v>
+        <v>1.013162621935237</v>
       </c>
       <c r="M21">
-        <v>1.030172336151226</v>
+        <v>1.030890650955802</v>
       </c>
       <c r="N21">
-        <v>1.009690065084388</v>
+        <v>1.012610984134478</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032451725013335</v>
+        <v>1.033020229230885</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02830017432236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02895648826364</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019019843450456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9849026679711249</v>
+        <v>0.9861290969102288</v>
       </c>
       <c r="D22">
-        <v>1.00746683393038</v>
+        <v>1.008618786815827</v>
       </c>
       <c r="E22">
-        <v>0.9951339687594045</v>
+        <v>0.9962177431482558</v>
       </c>
       <c r="F22">
-        <v>1.013450458615898</v>
+        <v>1.014355320208907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041461031242531</v>
+        <v>1.041882937950487</v>
       </c>
       <c r="J22">
-        <v>1.016320103532177</v>
+        <v>1.017490405535112</v>
       </c>
       <c r="K22">
-        <v>1.022891808568631</v>
+        <v>1.024021415838644</v>
       </c>
       <c r="L22">
-        <v>1.010802442962069</v>
+        <v>1.011864501501647</v>
       </c>
       <c r="M22">
-        <v>1.028760086898388</v>
+        <v>1.029647660448102</v>
       </c>
       <c r="N22">
-        <v>1.009223209130335</v>
+        <v>1.012550240985707</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031334010859023</v>
+        <v>1.032036474544083</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027325727277151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028140067967642</v>
+      </c>
+      <c r="S22">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T22">
+        <v>1.018773357297516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9863566769389408</v>
+        <v>0.9874659466727393</v>
       </c>
       <c r="D23">
-        <v>1.008502522370605</v>
+        <v>1.009524504197138</v>
       </c>
       <c r="E23">
-        <v>0.9962422462989862</v>
+        <v>0.9972227875265303</v>
       </c>
       <c r="F23">
-        <v>1.014516193390094</v>
+        <v>1.015322842416935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041693671421277</v>
+        <v>1.042075422225982</v>
       </c>
       <c r="J23">
-        <v>1.017032967961328</v>
+        <v>1.018092957055964</v>
       </c>
       <c r="K23">
-        <v>1.023598449599172</v>
+        <v>1.024601114226848</v>
       </c>
       <c r="L23">
-        <v>1.011573967342072</v>
+        <v>1.012535370699038</v>
       </c>
       <c r="M23">
-        <v>1.029499181710604</v>
+        <v>1.030290814323905</v>
       </c>
       <c r="N23">
-        <v>1.009466674606645</v>
+        <v>1.012537177894647</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031918962167299</v>
+        <v>1.03254549359955</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027815638465291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028539281960519</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018896696940527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9919949764285237</v>
+        <v>0.9927051652571877</v>
       </c>
       <c r="D24">
-        <v>1.012548562259658</v>
+        <v>1.013108431027785</v>
       </c>
       <c r="E24">
-        <v>1.000558362759505</v>
+        <v>1.001188298188518</v>
       </c>
       <c r="F24">
-        <v>1.018675651035999</v>
+        <v>1.019136289443044</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042576881198968</v>
+        <v>1.04282360781484</v>
       </c>
       <c r="J24">
-        <v>1.019804693889433</v>
+        <v>1.020486944725483</v>
       </c>
       <c r="K24">
-        <v>1.026358837352621</v>
+        <v>1.026909193126703</v>
       </c>
       <c r="L24">
-        <v>1.014575680012287</v>
+        <v>1.015194578065471</v>
       </c>
       <c r="M24">
-        <v>1.032382551205156</v>
+        <v>1.032835482560171</v>
       </c>
       <c r="N24">
-        <v>1.010414629252269</v>
+        <v>1.0126834179952</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034200979678431</v>
+        <v>1.034559447555528</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029759830777618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030162902615985</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019392729403414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9983295807951894</v>
+        <v>0.9987412585758251</v>
       </c>
       <c r="D25">
-        <v>1.017128304355692</v>
+        <v>1.017281955251389</v>
       </c>
       <c r="E25">
-        <v>1.005438200610631</v>
+        <v>1.00580795070327</v>
       </c>
       <c r="F25">
-        <v>1.02339200970952</v>
+        <v>1.023557895792407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043520631815163</v>
+        <v>1.043669530722187</v>
       </c>
       <c r="J25">
-        <v>1.022913292277754</v>
+        <v>1.023311058774174</v>
       </c>
       <c r="K25">
-        <v>1.029466419405934</v>
+        <v>1.029617786565124</v>
       </c>
       <c r="L25">
-        <v>1.017952678048907</v>
+        <v>1.018316769841462</v>
       </c>
       <c r="M25">
-        <v>1.03563773182935</v>
+        <v>1.035801190512437</v>
       </c>
       <c r="N25">
-        <v>1.011477312326979</v>
+        <v>1.013400716683178</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036777254967307</v>
+        <v>1.036906622216324</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031954198156735</v>
+        <v>1.032074845829633</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019978790278091</v>
       </c>
     </row>
   </sheetData>
